--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_재비산_TSP.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_재비산_TSP.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_TSP</t>
+  </si>
+  <si>
+    <t>02_taxi_TSP</t>
+  </si>
+  <si>
+    <t>03_van_TSP</t>
+  </si>
+  <si>
+    <t>04_bus_TSP</t>
+  </si>
+  <si>
+    <t>05_LightTruck_TSP</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_TSP</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_TSP</t>
+  </si>
+  <si>
+    <t>Total_TSP (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1308 +397,1432 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_TSP</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_TSP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_TSP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_TSP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_TSP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_TSP</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_TSP (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024101513</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>250.4841802053169</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>22.25674347221811</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>97.17794564768514</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>27.71544632524473</v>
+      </c>
+      <c r="F2">
         <v>84.79436264422978</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>57.5353704309767</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>10.76087571819985</v>
       </c>
-      <c r="H2" t="n">
-        <v>523.0094781186265</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>550.7249244438713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024101514</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>258.7050273788337</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>24.57515425057416</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>98.69635104843024</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>27.71544632524473</v>
+      </c>
+      <c r="F3">
         <v>81.84132513920683</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>45.68985298930502</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>9.933116047569094</v>
       </c>
-      <c r="H3" t="n">
-        <v>519.4408268539191</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>547.1562731791638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024101515</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>262.0604752047589</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>22.72042562788932</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>100.2147564491753</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>26.17569930717557</v>
+      </c>
+      <c r="F4">
         <v>76.35711262987853</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>45.68985298930502</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>9.105356376938337</v>
       </c>
-      <c r="H4" t="n">
-        <v>516.1479792779453</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>542.3236785851209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024101516</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>283.3675688993841</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>19.01096838251964</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>104.7699726514105</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>44.6526635240054</v>
+      </c>
+      <c r="F5">
         <v>75.09152512772586</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>43.99763621192337</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>8.277596706307582</v>
       </c>
-      <c r="H5" t="n">
-        <v>534.5152679792711</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>579.1679315032765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024101517</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>323.4651704191904</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>18.08360407117722</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>95.65954024694007</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>98.54380915642567</v>
+      </c>
+      <c r="F6">
         <v>63.27937510763416</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>21.99881810596169</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>7.449837035676821</v>
       </c>
-      <c r="H6" t="n">
-        <v>529.9363449865804</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>628.4801541430061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024101518</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>345.2755812877039</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6.95523233506816</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>65.29143223203846</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>103.1630502106332</v>
+      </c>
+      <c r="F7">
         <v>40.92066256960342</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>21.99881810596169</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>8.277596706307582</v>
       </c>
-      <c r="H7" t="n">
-        <v>488.7193232366832</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>591.8823734473165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024101519</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>262.7315647699439</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8.809960957753002</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>89.58591864395974</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>61.58988072276606</v>
+      </c>
+      <c r="F8">
         <v>30.37410005166439</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>20.30660132858001</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>1.655519341261516</v>
       </c>
-      <c r="H8" t="n">
-        <v>413.4636650931626</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>475.0535458159287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024101520</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>209.2121719464368</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>9.273643113424214</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>56.18099982756798</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>117.0207733732555</v>
+      </c>
+      <c r="F9">
         <v>13.92146252367951</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>23.69103488334335</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>2.483279011892273</v>
       </c>
-      <c r="H9" t="n">
-        <v>314.7625913063441</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>431.7833646795996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024101521</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>173.3088802090371</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>4.636821556712107</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>47.0705674230975</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>58.51038668662774</v>
+      </c>
+      <c r="F10">
         <v>13.07773752224439</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>28.76768521548835</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H10" t="n">
-        <v>267.6894515972102</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>326.1998382838379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024101522</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>123.1449352114552</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>9.273643113424214</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>24.29448641192128</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>27.71544632524473</v>
+      </c>
+      <c r="F11">
         <v>14.34332502439707</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>20.30660132858001</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>3.311038682523032</v>
       </c>
-      <c r="H11" t="n">
-        <v>194.6740297723008</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>222.3894760975455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024101523</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>75.6653484746135</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>9.273643113424214</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>13.66564860670573</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>13.85772316262237</v>
+      </c>
+      <c r="F12">
         <v>8.015387513633659</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>15.22995099643501</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>1.655519341261516</v>
       </c>
-      <c r="H12" t="n">
-        <v>123.5054980460736</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>137.363221208696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024101600</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>53.68716521480334</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>13.91046467013632</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>15.18405400745081</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>9.238482108414912</v>
+      </c>
+      <c r="F13">
         <v>8.437250014351221</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>18.61438455119834</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>109.83331845794</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>119.071800566355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024101601</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>35.39997456351097</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>14.83782898147874</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>9.110432404470485</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>4.619241054207456</v>
+      </c>
+      <c r="F14">
         <v>9.280975015786343</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>27.07546843810669</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H14" t="n">
-        <v>96.53243907398397</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>101.1516801281914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024101602</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>27.01135499869795</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>11.12837173610905</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>16.70245940819589</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>6.158988072276604</v>
+      </c>
+      <c r="F15">
         <v>7.171662512198537</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>23.69103488334335</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>1.655519341261516</v>
       </c>
-      <c r="H15" t="n">
-        <v>87.36040287980629</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>93.51939095208289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024101603</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>24.66254152055028</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>4.173139401040896</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>19.73927020968604</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>4.619241054207456</v>
+      </c>
+      <c r="F16">
         <v>6.749800011480978</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>20.30660132858001</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H16" t="n">
-        <v>76.45911214196896</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>81.07835319617642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024101604</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>49.66062782369309</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>6.027868023725738</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>30.36810801490162</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>4.619241054207456</v>
+      </c>
+      <c r="F17">
         <v>15.60891252654976</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>30.45990199287002</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17">
         <v>2.483279011892273</v>
       </c>
-      <c r="H17" t="n">
-        <v>134.6086973936325</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>139.22793844784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024101605</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>109.3875991251617</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3.709457245369685</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>48.58897282384257</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>73.9078568673193</v>
+      </c>
+      <c r="F18">
         <v>35.85831256099269</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>55.84315365359503</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18">
         <v>2.483279011892273</v>
       </c>
-      <c r="H18" t="n">
-        <v>255.870774420854</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>329.7786312881733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024101606</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>192.602705208107</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>6.491550179396949</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>89.58591864395974</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>152.4349547888461</v>
+      </c>
+      <c r="F19">
         <v>60.74820010332878</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>99.84078986551842</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19">
         <v>8.277596706307582</v>
       </c>
-      <c r="H19" t="n">
-        <v>457.5467607066184</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>609.9817154954644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024101607</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>260.8860684656848</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>6.95523233506816</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>78.95708083874416</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>132.418243553947</v>
+      </c>
+      <c r="F20">
         <v>59.06075010045854</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>86.30305564646505</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>8.277596706307582</v>
       </c>
-      <c r="H20" t="n">
-        <v>500.4397840927284</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>632.8580276466754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024101608</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>206.8633584682891</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>7.418914490739369</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>39.47854041937208</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>55.43089265048946</v>
+      </c>
+      <c r="F21">
         <v>46.40487507893172</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>62.61202076312169</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>3.311038682523032</v>
       </c>
-      <c r="H21" t="n">
-        <v>366.0887479029769</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>421.5196405534664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024101609</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>244.9476912925402</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>23.18410778356053</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>122.9908374603515</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>56.97063966855859</v>
+      </c>
+      <c r="F22">
         <v>87.7474001492527</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>113.3785240845717</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>3.311038682523032</v>
       </c>
-      <c r="H22" t="n">
-        <v>595.5595994527997</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>652.5302391213582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024101610</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>220.1173773806937</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>24.11147209490295</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>100.2147564491753</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>35.41418141559048</v>
+      </c>
+      <c r="F23">
         <v>94.91906266145122</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>86.30305564646505</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>4.138798353153791</v>
       </c>
-      <c r="H23" t="n">
-        <v>529.8045225858421</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>565.2187040014326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024101611</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>231.0225828149508</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>24.11147209490295</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>89.58591864395974</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>33.87443439752132</v>
+      </c>
+      <c r="F24">
         <v>88.59112515068782</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>76.14975498217504</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>8.277596706307582</v>
       </c>
-      <c r="H24" t="n">
-        <v>517.738450392984</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>551.6128847905053</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024101612</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>233.0358515105058</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>18.54728622684843</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>94.141134846195</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>32.33468737945217</v>
+      </c>
+      <c r="F25">
         <v>70.02917511911512</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>71.07310465003006</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>5.794317694415305</v>
       </c>
-      <c r="H25" t="n">
-        <v>492.6208700471097</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>524.9555574265619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024101613</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>239.7467471623562</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>19.93833269386205</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>83.51229704097945</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>18.47696421682982</v>
+      </c>
+      <c r="F26">
         <v>89.43485015212295</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>94.76413953337338</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>6.622077365046064</v>
       </c>
-      <c r="H26" t="n">
-        <v>534.01844394774</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>552.4954081645699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024101614</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>251.6585869443907</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>15.76519329282116</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>116.9172158573712</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>36.95392843365965</v>
+      </c>
+      <c r="F27">
         <v>75.09152512772586</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>37.22876910239668</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>5.794317694415305</v>
       </c>
-      <c r="H27" t="n">
-        <v>502.4556080191209</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>539.4095364527806</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024101615</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>243.6055121621703</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>24.11147209490295</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>115.3988104566261</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>33.87443439752132</v>
+      </c>
+      <c r="F28">
         <v>70.87290012055024</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>76.14975498217504</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>13.24415473009213</v>
       </c>
-      <c r="H28" t="n">
-        <v>543.3826045465167</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>577.2570389440381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024101616</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>267.932508900128</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>20.86569700520447</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>112.361999655136</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>44.6526635240054</v>
+      </c>
+      <c r="F29">
         <v>70.45103761983269</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>45.68985298930502</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>20.69399176576895</v>
       </c>
-      <c r="H29" t="n">
-        <v>537.9950879353751</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>582.6477514593804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024101617</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>335.7125549838173</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>10.20100742476663</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>71.36505383501878</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>73.9078568673193</v>
+      </c>
+      <c r="F30">
         <v>61.17006260404636</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>35.53655232501503</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>10.76087571819985</v>
       </c>
-      <c r="H30" t="n">
-        <v>524.7461068908639</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>598.6539637581832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024101618</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>349.3021186788142</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>13.44678251446511</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>89.58591864395974</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>107.7822912648406</v>
+      </c>
+      <c r="F31">
         <v>46.82673757964927</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>32.15211877025168</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>3.311038682523032</v>
       </c>
-      <c r="H31" t="n">
-        <v>534.6247148696631</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>642.4070061345037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024101619</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>276.321128464941</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>9.73732526909542</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>75.92027003725404</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>72.36810984925012</v>
+      </c>
+      <c r="F32">
         <v>32.90527505596976</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>25.38325166072503</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>7.449837035676821</v>
       </c>
-      <c r="H32" t="n">
-        <v>427.717087523662</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>500.0851973729121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024101620</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>231.3581275975432</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>13.91046467013632</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>59.21781062905814</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>98.54380915642567</v>
+      </c>
+      <c r="F33">
         <v>21.09312503587805</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>27.07546843810669</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H33" t="n">
-        <v>353.4827560413532</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>452.0265651977789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024101621</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>190.0861193386631</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>9.273643113424214</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>39.47854041937208</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>47.73215756014368</v>
+      </c>
+      <c r="F34">
         <v>13.49960002296196</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>13.53773421905334</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>3.311038682523032</v>
       </c>
-      <c r="H34" t="n">
-        <v>269.1866757959977</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>316.9188333561414</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024101622</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>134.3856854283047</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>8.809960957753002</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>37.96013501862702</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>26.17569930717557</v>
+      </c>
+      <c r="F35">
         <v>10.12470001722147</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>21.99881810596169</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H35" t="n">
-        <v>214.1070591984986</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>240.2827585056742</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024101623</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>84.55728521331525</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>16.22887544849237</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>15.18405400745081</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>13.85772316262237</v>
+      </c>
+      <c r="F36">
         <v>8.437250014351221</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>15.22995099643501</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H36" t="n">
-        <v>140.4651753506755</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>154.3228985132978</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024101700</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>64.25682586646776</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>19.47465053819084</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>15.18405400745081</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>6.158988072276604</v>
+      </c>
+      <c r="F37">
         <v>7.171662512198537</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>16.92216777381667</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>3.311038682523032</v>
       </c>
-      <c r="H37" t="n">
-        <v>126.3203993806477</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>132.4793874529242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024101701</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>36.07106412869599</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>13.44678251446511</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>12.14724320596064</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>3.079494036138302</v>
+      </c>
+      <c r="F38">
         <v>8.437250014351221</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>16.92216777381667</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>1.655519341261516</v>
       </c>
-      <c r="H38" t="n">
-        <v>88.68002697855115</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>91.75952101468945</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024101702</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>24.15922434666151</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>9.73732526909542</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>18.22086480894097</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>1.539747018069151</v>
+      </c>
+      <c r="F39">
         <v>8.015387513633659</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>16.92216777381667</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H39" t="n">
-        <v>77.88272938277898</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>79.42247640084814</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024101703</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>24.32699673795776</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>5.100503712383316</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>16.70245940819589</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>4.619241054207456</v>
+      </c>
+      <c r="F40">
         <v>8.85911251506878</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>21.99881810596169</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>1.655519341261516</v>
       </c>
-      <c r="H40" t="n">
-        <v>78.64340982082894</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>83.2626508750364</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024101704</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>45.46631804128656</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>5.100503712383316</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>21.25767561043113</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>7.698735090345758</v>
+      </c>
+      <c r="F41">
         <v>21.51498753659561</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>33.84433554763335</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H41" t="n">
-        <v>128.0115801189607</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>135.7103152093065</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024101705</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>118.1117634725673</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>5.100503712383316</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>39.47854041937208</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>64.66937475890434</v>
+      </c>
+      <c r="F42">
         <v>42.60811257247367</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>62.61202076312169</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>6.622077365046064</v>
       </c>
-      <c r="H42" t="n">
-        <v>274.5330183049641</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>339.2023930638684</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024101706</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>175.825466078481</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>2.318410778356053</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>56.18099982756798</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>126.2592554816704</v>
+      </c>
+      <c r="F43">
         <v>51.88908758826001</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>125.2240415262434</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>7.449837035676821</v>
       </c>
-      <c r="H43" t="n">
-        <v>418.8878428345852</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>545.1470983162558</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024101707</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>281.522072595125</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>7.88259664641058</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>71.36505383501878</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>141.6567256623619</v>
+      </c>
+      <c r="F44">
         <v>61.59192510476391</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>91.37970597861005</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>14.89967407135364</v>
       </c>
-      <c r="H44" t="n">
-        <v>528.6410282312819</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>670.297753893644</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024101708</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>285.7163823775316</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>16.22887544849237</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>86.54910784246957</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>73.9078568673193</v>
+      </c>
+      <c r="F45">
         <v>70.45103761983269</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>103.2252234202818</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>6.622077365046064</v>
       </c>
-      <c r="H45" t="n">
-        <v>568.792704073654</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>642.7005609409733</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024101709</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>245.2832360751328</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>25.03883640624537</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>133.6196752655671</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>67.74886879504264</v>
+      </c>
+      <c r="F46">
         <v>77.20083763131368</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>109.9940905298084</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>6.622077365046064</v>
       </c>
-      <c r="H46" t="n">
-        <v>597.7587532731135</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>665.5076220681561</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024101710</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>182.5363617303314</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>19.01096838251964</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>77.43867543799909</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>29.25519334331387</v>
+      </c>
+      <c r="F47">
         <v>68.34172511624489</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>74.45753820479337</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>4.138798353153791</v>
       </c>
-      <c r="H47" t="n">
-        <v>425.9240672250422</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>455.179260568356</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024101711</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>191.5960708603294</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>19.01096838251964</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>68.32824303352862</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>29.25519334331387</v>
+      </c>
+      <c r="F48">
         <v>64.12310010906927</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>65.99645431788505</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>8.277596706307582</v>
       </c>
-      <c r="H48" t="n">
-        <v>417.3324334096396</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>446.5876267529535</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024101712</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>193.2737947732921</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>14.83782898147874</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>72.88345923576388</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>27.71544632524473</v>
+      </c>
+      <c r="F49">
         <v>50.62350008610733</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>60.91980398574004</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>5.794317694415305</v>
       </c>
-      <c r="H49" t="n">
-        <v>398.3327047567974</v>
+      <c r="I49">
+        <v>426.0481510820421</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_재비산_TSP.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>250.4841802053169</v>
+        <v>363.0931551324028</v>
       </c>
       <c r="C2">
-        <v>22.25674347221811</v>
+        <v>32.26260118972834</v>
       </c>
       <c r="D2">
-        <v>97.17794564768514</v>
+        <v>140.865769908427</v>
       </c>
       <c r="E2">
-        <v>27.71544632524473</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F2">
-        <v>84.79436264422978</v>
+        <v>122.91495871994</v>
       </c>
       <c r="G2">
-        <v>57.5353704309767</v>
+        <v>83.40127174646796</v>
       </c>
       <c r="H2">
-        <v>10.76087571819985</v>
+        <v>15.59859114977318</v>
       </c>
       <c r="I2">
-        <v>550.7249244438713</v>
+        <v>798.3116948242897</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>258.7050273788337</v>
+        <v>375.0098092526223</v>
       </c>
       <c r="C3">
-        <v>24.57515425057416</v>
+        <v>35.62328881365838</v>
       </c>
       <c r="D3">
-        <v>98.69635104843024</v>
+        <v>143.0667975632463</v>
       </c>
       <c r="E3">
-        <v>27.71544632524473</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F3">
-        <v>81.84132513920683</v>
+        <v>118.6343382670068</v>
       </c>
       <c r="G3">
-        <v>45.68985298930502</v>
+        <v>66.23042168101868</v>
       </c>
       <c r="H3">
-        <v>9.933116047569094</v>
+        <v>14.39869952286755</v>
       </c>
       <c r="I3">
-        <v>547.1562731791638</v>
+        <v>793.1387020779704</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>262.0604752047589</v>
+        <v>379.8737497098547</v>
       </c>
       <c r="C4">
-        <v>22.72042562788932</v>
+        <v>32.93473871451435</v>
       </c>
       <c r="D4">
-        <v>100.2147564491753</v>
+        <v>145.2678252180654</v>
       </c>
       <c r="E4">
-        <v>26.17569930717557</v>
+        <v>37.94338325657537</v>
       </c>
       <c r="F4">
-        <v>76.35711262987853</v>
+        <v>110.6846145687022</v>
       </c>
       <c r="G4">
-        <v>45.68985298930502</v>
+        <v>66.23042168101868</v>
       </c>
       <c r="H4">
-        <v>9.105356376938337</v>
+        <v>13.19880789596192</v>
       </c>
       <c r="I4">
-        <v>542.3236785851209</v>
+        <v>786.1335410446927</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>283.3675688993841</v>
+        <v>410.7597716132808</v>
       </c>
       <c r="C5">
-        <v>19.01096838251964</v>
+        <v>27.55763851622629</v>
       </c>
       <c r="D5">
-        <v>104.7699726514105</v>
+        <v>151.870908182523</v>
       </c>
       <c r="E5">
-        <v>44.6526635240054</v>
+        <v>64.72694790827565</v>
       </c>
       <c r="F5">
-        <v>75.09152512772586</v>
+        <v>108.8500629460165</v>
       </c>
       <c r="G5">
-        <v>43.99763621192337</v>
+        <v>63.77744310024022</v>
       </c>
       <c r="H5">
-        <v>8.277596706307582</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I5">
-        <v>579.1679315032765</v>
+        <v>839.5416885356188</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>323.4651704191904</v>
+        <v>468.8838600772086</v>
       </c>
       <c r="C6">
-        <v>18.08360407117722</v>
+        <v>26.21336346665428</v>
       </c>
       <c r="D6">
-        <v>95.65954024694007</v>
+        <v>138.664742253608</v>
       </c>
       <c r="E6">
-        <v>98.54380915642567</v>
+        <v>142.8456781424014</v>
       </c>
       <c r="F6">
-        <v>63.27937510763416</v>
+        <v>91.72758113428362</v>
       </c>
       <c r="G6">
-        <v>21.99881810596169</v>
+        <v>31.88872155012011</v>
       </c>
       <c r="H6">
-        <v>7.449837035676821</v>
+        <v>10.79902464215066</v>
       </c>
       <c r="I6">
-        <v>628.4801541430061</v>
+        <v>911.0229712664266</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>345.2755812877039</v>
+        <v>500.4994730492198</v>
       </c>
       <c r="C7">
-        <v>6.95523233506816</v>
+        <v>10.08206287179011</v>
       </c>
       <c r="D7">
-        <v>65.29143223203846</v>
+        <v>94.64418915722445</v>
       </c>
       <c r="E7">
-        <v>103.1630502106332</v>
+        <v>149.5415693053265</v>
       </c>
       <c r="F7">
-        <v>40.92066256960342</v>
+        <v>59.31716913350341</v>
       </c>
       <c r="G7">
-        <v>21.99881810596169</v>
+        <v>31.88872155012011</v>
       </c>
       <c r="H7">
-        <v>8.277596706307582</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I7">
-        <v>591.8823734473165</v>
+        <v>857.9721013362406</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>262.7315647699439</v>
+        <v>380.8465378013014</v>
       </c>
       <c r="C8">
-        <v>8.809960957753002</v>
+        <v>12.77061297093413</v>
       </c>
       <c r="D8">
-        <v>89.58591864395974</v>
+        <v>129.8606316343312</v>
       </c>
       <c r="E8">
-        <v>61.58988072276606</v>
+        <v>89.2785488390009</v>
       </c>
       <c r="F8">
-        <v>30.37410005166439</v>
+        <v>44.02923894445613</v>
       </c>
       <c r="G8">
-        <v>20.30660132858001</v>
+        <v>29.43574296934164</v>
       </c>
       <c r="H8">
-        <v>1.655519341261516</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I8">
-        <v>475.0535458159287</v>
+        <v>688.6210964131767</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>209.2121719464368</v>
+        <v>303.2666875084437</v>
       </c>
       <c r="C9">
-        <v>9.273643113424214</v>
+        <v>13.44275049572014</v>
       </c>
       <c r="D9">
-        <v>56.18099982756798</v>
+        <v>81.43802322830943</v>
       </c>
       <c r="E9">
-        <v>117.0207733732555</v>
+        <v>169.6292427941016</v>
       </c>
       <c r="F9">
-        <v>13.92146252367951</v>
+        <v>20.1800678495424</v>
       </c>
       <c r="G9">
-        <v>23.69103488334335</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="H9">
-        <v>2.483279011892273</v>
+        <v>3.599674880716888</v>
       </c>
       <c r="I9">
-        <v>431.7833646795996</v>
+        <v>625.8981468877327</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>173.3088802090371</v>
+        <v>251.2225246160563</v>
       </c>
       <c r="C10">
-        <v>4.636821556712107</v>
+        <v>6.721375247860069</v>
       </c>
       <c r="D10">
-        <v>47.0705674230975</v>
+        <v>68.23185729939436</v>
       </c>
       <c r="E10">
-        <v>58.51038668662774</v>
+        <v>84.81462139705081</v>
       </c>
       <c r="F10">
-        <v>13.07773752224439</v>
+        <v>18.95703343441861</v>
       </c>
       <c r="G10">
-        <v>28.76768521548835</v>
+        <v>41.70063587323398</v>
       </c>
       <c r="H10">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I10">
-        <v>326.1998382838379</v>
+        <v>472.8479394949198</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>123.1449352114552</v>
+        <v>178.5066147804312</v>
       </c>
       <c r="C11">
-        <v>9.273643113424214</v>
+        <v>13.44275049572014</v>
       </c>
       <c r="D11">
-        <v>24.29448641192128</v>
+        <v>35.21644247710676</v>
       </c>
       <c r="E11">
-        <v>27.71544632524473</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F11">
-        <v>14.34332502439707</v>
+        <v>20.79158505710429</v>
       </c>
       <c r="G11">
-        <v>20.30660132858001</v>
+        <v>29.43574296934164</v>
       </c>
       <c r="H11">
-        <v>3.311038682523032</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I11">
-        <v>222.3894760975455</v>
+        <v>322.3680492648768</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>75.6653484746135</v>
+        <v>109.6818573105919</v>
       </c>
       <c r="C12">
-        <v>9.273643113424214</v>
+        <v>13.44275049572014</v>
       </c>
       <c r="D12">
-        <v>13.66564860670573</v>
+        <v>19.80924889337256</v>
       </c>
       <c r="E12">
-        <v>13.85772316262237</v>
+        <v>20.0876734887752</v>
       </c>
       <c r="F12">
-        <v>8.015387513633659</v>
+        <v>11.61882694367592</v>
       </c>
       <c r="G12">
-        <v>15.22995099643501</v>
+        <v>22.07680722700623</v>
       </c>
       <c r="H12">
-        <v>1.655519341261516</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I12">
-        <v>137.363221208696</v>
+        <v>199.1169476129532</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>53.68716521480334</v>
+        <v>77.82304731571934</v>
       </c>
       <c r="C13">
-        <v>13.91046467013632</v>
+        <v>20.16412574358021</v>
       </c>
       <c r="D13">
-        <v>15.18405400745081</v>
+        <v>22.01027654819174</v>
       </c>
       <c r="E13">
-        <v>9.238482108414912</v>
+        <v>13.39178232585014</v>
       </c>
       <c r="F13">
-        <v>8.437250014351221</v>
+        <v>12.23034415123781</v>
       </c>
       <c r="G13">
-        <v>18.61438455119834</v>
+        <v>26.98276438856317</v>
       </c>
       <c r="I13">
-        <v>119.071800566355</v>
+        <v>172.6023404731424</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>35.39997456351097</v>
+        <v>51.31457182380243</v>
       </c>
       <c r="C14">
-        <v>14.83782898147874</v>
+        <v>21.50840079315222</v>
       </c>
       <c r="D14">
-        <v>9.110432404470485</v>
+        <v>13.20616592891504</v>
       </c>
       <c r="E14">
-        <v>4.619241054207456</v>
+        <v>6.695891162925068</v>
       </c>
       <c r="F14">
-        <v>9.280975015786343</v>
+        <v>13.45337856636159</v>
       </c>
       <c r="G14">
-        <v>27.07546843810669</v>
+        <v>39.24765729245553</v>
       </c>
       <c r="H14">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I14">
-        <v>101.1516801281914</v>
+        <v>146.6259571945175</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>27.01135499869795</v>
+        <v>39.15472068072126</v>
       </c>
       <c r="C15">
-        <v>11.12837173610905</v>
+        <v>16.13130059486417</v>
       </c>
       <c r="D15">
-        <v>16.70245940819589</v>
+        <v>24.2113042030109</v>
       </c>
       <c r="E15">
-        <v>6.158988072276604</v>
+        <v>8.927854883900087</v>
       </c>
       <c r="F15">
-        <v>7.171662512198537</v>
+        <v>10.39579252855214</v>
       </c>
       <c r="G15">
-        <v>23.69103488334335</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="H15">
-        <v>1.655519341261516</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I15">
-        <v>93.51939095208289</v>
+        <v>135.5624562757584</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>24.66254152055028</v>
+        <v>35.74996236065856</v>
       </c>
       <c r="C16">
-        <v>4.173139401040896</v>
+        <v>6.049237723074063</v>
       </c>
       <c r="D16">
-        <v>19.73927020968604</v>
+        <v>28.61335951264925</v>
       </c>
       <c r="E16">
-        <v>4.619241054207456</v>
+        <v>6.695891162925068</v>
       </c>
       <c r="F16">
-        <v>6.749800011480978</v>
+        <v>9.78427532099025</v>
       </c>
       <c r="G16">
-        <v>20.30660132858001</v>
+        <v>29.43574296934164</v>
       </c>
       <c r="H16">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I16">
-        <v>81.07835319617642</v>
+        <v>117.5283606765444</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>49.66062782369309</v>
+        <v>71.98631876704033</v>
       </c>
       <c r="C17">
-        <v>6.027868023725738</v>
+        <v>8.737787822218092</v>
       </c>
       <c r="D17">
-        <v>30.36810801490162</v>
+        <v>44.02055309638349</v>
       </c>
       <c r="E17">
-        <v>4.619241054207456</v>
+        <v>6.695891162925068</v>
       </c>
       <c r="F17">
-        <v>15.60891252654976</v>
+        <v>22.62613667978996</v>
       </c>
       <c r="G17">
-        <v>30.45990199287002</v>
+        <v>44.15361445401247</v>
       </c>
       <c r="H17">
-        <v>2.483279011892273</v>
+        <v>3.599674880716888</v>
       </c>
       <c r="I17">
-        <v>139.22793844784</v>
+        <v>201.8199768630863</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>109.3875991251617</v>
+        <v>158.5644589057781</v>
       </c>
       <c r="C18">
-        <v>3.709457245369685</v>
+        <v>5.377100198288056</v>
       </c>
       <c r="D18">
-        <v>48.58897282384257</v>
+        <v>70.43288495421352</v>
       </c>
       <c r="E18">
-        <v>73.9078568673193</v>
+        <v>107.1342586068011</v>
       </c>
       <c r="F18">
-        <v>35.85831256099269</v>
+        <v>51.97896264276071</v>
       </c>
       <c r="G18">
-        <v>55.84315365359503</v>
+        <v>80.94829316568951</v>
       </c>
       <c r="H18">
-        <v>2.483279011892273</v>
+        <v>3.599674880716888</v>
       </c>
       <c r="I18">
-        <v>329.7786312881733</v>
+        <v>478.0356333542478</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>192.602705208107</v>
+        <v>279.190182245143</v>
       </c>
       <c r="C19">
-        <v>6.491550179396949</v>
+        <v>9.409925347004098</v>
       </c>
       <c r="D19">
-        <v>89.58591864395974</v>
+        <v>129.8606316343312</v>
       </c>
       <c r="E19">
-        <v>152.4349547888461</v>
+        <v>220.9644083765272</v>
       </c>
       <c r="F19">
-        <v>60.74820010332878</v>
+        <v>88.05847788891226</v>
       </c>
       <c r="G19">
-        <v>99.84078986551842</v>
+        <v>144.7257362659297</v>
       </c>
       <c r="H19">
-        <v>8.277596706307582</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I19">
-        <v>609.9817154954644</v>
+        <v>884.2082780269039</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>260.8860684656848</v>
+        <v>378.1713705498235</v>
       </c>
       <c r="C20">
-        <v>6.95523233506816</v>
+        <v>10.08206287179011</v>
       </c>
       <c r="D20">
-        <v>78.95708083874416</v>
+        <v>114.453438050597</v>
       </c>
       <c r="E20">
-        <v>132.418243553947</v>
+        <v>191.9488800038519</v>
       </c>
       <c r="F20">
-        <v>59.06075010045854</v>
+        <v>85.61240905866468</v>
       </c>
       <c r="G20">
-        <v>86.30305564646505</v>
+        <v>125.1019076197019</v>
       </c>
       <c r="H20">
-        <v>8.277596706307582</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I20">
-        <v>632.8580276466754</v>
+        <v>917.3689844234854</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>206.8633584682891</v>
+        <v>299.8619291883809</v>
       </c>
       <c r="C21">
-        <v>7.418914490739369</v>
+        <v>10.75420039657611</v>
       </c>
       <c r="D21">
-        <v>39.47854041937208</v>
+        <v>57.22671902529851</v>
       </c>
       <c r="E21">
-        <v>55.43089265048946</v>
+        <v>80.35069395510078</v>
       </c>
       <c r="F21">
-        <v>46.40487507893172</v>
+        <v>67.26689283180799</v>
       </c>
       <c r="G21">
-        <v>62.61202076312169</v>
+        <v>90.76020748880339</v>
       </c>
       <c r="H21">
-        <v>3.311038682523032</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I21">
-        <v>421.5196405534664</v>
+        <v>611.0202093935903</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>244.9476912925402</v>
+        <v>355.0676533779693</v>
       </c>
       <c r="C22">
-        <v>23.18410778356053</v>
+        <v>33.60687623930036</v>
       </c>
       <c r="D22">
-        <v>122.9908374603515</v>
+        <v>178.283240040353</v>
       </c>
       <c r="E22">
-        <v>56.97063966855859</v>
+        <v>82.58265767607583</v>
       </c>
       <c r="F22">
-        <v>87.7474001492527</v>
+        <v>127.1955791728733</v>
       </c>
       <c r="G22">
-        <v>113.3785240845717</v>
+        <v>164.3495649121575</v>
       </c>
       <c r="H22">
-        <v>3.311038682523032</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I22">
-        <v>652.5302391213582</v>
+        <v>945.8851379263519</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>220.1173773806937</v>
+        <v>319.0744939944492</v>
       </c>
       <c r="C23">
-        <v>24.11147209490295</v>
+        <v>34.95115128887237</v>
       </c>
       <c r="D23">
-        <v>100.2147564491753</v>
+        <v>145.2678252180654</v>
       </c>
       <c r="E23">
-        <v>35.41418141559048</v>
+        <v>51.33516558242551</v>
       </c>
       <c r="F23">
-        <v>94.91906266145122</v>
+        <v>137.5913717014254</v>
       </c>
       <c r="G23">
-        <v>86.30305564646505</v>
+        <v>125.1019076197019</v>
       </c>
       <c r="H23">
-        <v>4.138798353153791</v>
+        <v>5.999458134528146</v>
       </c>
       <c r="I23">
-        <v>565.2187040014326</v>
+        <v>819.3213735394679</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>231.0225828149508</v>
+        <v>334.8823004804546</v>
       </c>
       <c r="C24">
-        <v>24.11147209490295</v>
+        <v>34.95115128887237</v>
       </c>
       <c r="D24">
-        <v>89.58591864395974</v>
+        <v>129.8606316343312</v>
       </c>
       <c r="E24">
-        <v>33.87443439752132</v>
+        <v>49.10320186145047</v>
       </c>
       <c r="F24">
-        <v>88.59112515068782</v>
+        <v>128.418613587997</v>
       </c>
       <c r="G24">
-        <v>76.14975498217504</v>
+        <v>110.3840361350311</v>
       </c>
       <c r="H24">
-        <v>8.277596706307582</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I24">
-        <v>551.6128847905053</v>
+        <v>799.5988512571931</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>233.0358515105058</v>
+        <v>337.8006647547941</v>
       </c>
       <c r="C25">
-        <v>18.54728622684843</v>
+        <v>26.88550099144028</v>
       </c>
       <c r="D25">
-        <v>94.141134846195</v>
+        <v>136.4637145987887</v>
       </c>
       <c r="E25">
-        <v>32.33468737945217</v>
+        <v>46.87123814047546</v>
       </c>
       <c r="F25">
-        <v>70.02917511911512</v>
+        <v>101.5118564552738</v>
       </c>
       <c r="G25">
-        <v>71.07310465003006</v>
+        <v>103.0251003926957</v>
       </c>
       <c r="H25">
-        <v>5.794317694415305</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I25">
-        <v>524.9555574265619</v>
+        <v>760.9573167218075</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>239.7467471623562</v>
+        <v>347.5285456692592</v>
       </c>
       <c r="C26">
-        <v>19.93833269386205</v>
+        <v>28.9019135657983</v>
       </c>
       <c r="D26">
-        <v>83.51229704097945</v>
+        <v>121.0565210150545</v>
       </c>
       <c r="E26">
-        <v>18.47696421682982</v>
+        <v>26.78356465170027</v>
       </c>
       <c r="F26">
-        <v>89.43485015212295</v>
+        <v>129.6416480031208</v>
       </c>
       <c r="G26">
-        <v>94.76413953337338</v>
+        <v>137.3668005235943</v>
       </c>
       <c r="H26">
-        <v>6.622077365046064</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I26">
-        <v>552.4954081645699</v>
+        <v>800.8781264437724</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>251.6585869443907</v>
+        <v>364.7955342924342</v>
       </c>
       <c r="C27">
-        <v>15.76519329282116</v>
+        <v>22.85267584272424</v>
       </c>
       <c r="D27">
-        <v>116.9172158573712</v>
+        <v>169.4791294210764</v>
       </c>
       <c r="E27">
-        <v>36.95392843365965</v>
+        <v>53.56712930340054</v>
       </c>
       <c r="F27">
-        <v>75.09152512772586</v>
+        <v>108.8500629460165</v>
       </c>
       <c r="G27">
-        <v>37.22876910239668</v>
+        <v>53.96552877712634</v>
       </c>
       <c r="H27">
-        <v>5.794317694415305</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I27">
-        <v>539.4095364527806</v>
+        <v>781.9093019711178</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>243.6055121621703</v>
+        <v>353.1220771950761</v>
       </c>
       <c r="C28">
-        <v>24.11147209490295</v>
+        <v>34.95115128887237</v>
       </c>
       <c r="D28">
-        <v>115.3988104566261</v>
+        <v>167.2781017662572</v>
       </c>
       <c r="E28">
-        <v>33.87443439752132</v>
+        <v>49.10320186145047</v>
       </c>
       <c r="F28">
-        <v>70.87290012055024</v>
+        <v>102.7348908703976</v>
       </c>
       <c r="G28">
-        <v>76.14975498217504</v>
+        <v>110.3840361350311</v>
       </c>
       <c r="H28">
-        <v>13.24415473009213</v>
+        <v>19.19826603049006</v>
       </c>
       <c r="I28">
-        <v>577.2570389440381</v>
+        <v>836.7717251475751</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>267.932508900128</v>
+        <v>388.3856455100116</v>
       </c>
       <c r="C29">
-        <v>20.86569700520447</v>
+        <v>30.24618861537032</v>
       </c>
       <c r="D29">
-        <v>112.361999655136</v>
+        <v>162.8760464566189</v>
       </c>
       <c r="E29">
-        <v>44.6526635240054</v>
+        <v>64.72694790827565</v>
       </c>
       <c r="F29">
-        <v>70.45103761983269</v>
+        <v>102.1233736628357</v>
       </c>
       <c r="G29">
-        <v>45.68985298930502</v>
+        <v>66.23042168101868</v>
       </c>
       <c r="H29">
-        <v>20.69399176576895</v>
+        <v>29.99729067264073</v>
       </c>
       <c r="I29">
-        <v>582.6477514593804</v>
+        <v>844.5859145067716</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>335.7125549838173</v>
+        <v>486.6372427461074</v>
       </c>
       <c r="C30">
-        <v>10.20100742476663</v>
+        <v>14.78702554529216</v>
       </c>
       <c r="D30">
-        <v>71.36505383501878</v>
+        <v>103.4482997765012</v>
       </c>
       <c r="E30">
-        <v>73.9078568673193</v>
+        <v>107.1342586068011</v>
       </c>
       <c r="F30">
-        <v>61.17006260404636</v>
+        <v>88.66999509647415</v>
       </c>
       <c r="G30">
-        <v>35.53655232501503</v>
+        <v>51.51255019634785</v>
       </c>
       <c r="H30">
-        <v>10.76087571819985</v>
+        <v>15.59859114977318</v>
       </c>
       <c r="I30">
-        <v>598.6539637581832</v>
+        <v>867.787963117297</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>349.3021186788142</v>
+        <v>506.3362015978988</v>
       </c>
       <c r="C31">
-        <v>13.44678251446511</v>
+        <v>19.49198821879421</v>
       </c>
       <c r="D31">
-        <v>89.58591864395974</v>
+        <v>129.8606316343312</v>
       </c>
       <c r="E31">
-        <v>107.7822912648406</v>
+        <v>156.2374604682515</v>
       </c>
       <c r="F31">
-        <v>46.82673757964927</v>
+        <v>67.87841003936987</v>
       </c>
       <c r="G31">
-        <v>32.15211877025168</v>
+        <v>46.60659303479093</v>
       </c>
       <c r="H31">
-        <v>3.311038682523032</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I31">
-        <v>642.4070061345037</v>
+        <v>931.2108515010592</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>276.321128464941</v>
+        <v>400.5454966530926</v>
       </c>
       <c r="C32">
-        <v>9.73732526909542</v>
+        <v>14.11488802050615</v>
       </c>
       <c r="D32">
-        <v>75.92027003725404</v>
+        <v>110.0513827409587</v>
       </c>
       <c r="E32">
-        <v>72.36810984925012</v>
+        <v>104.9022948858261</v>
       </c>
       <c r="F32">
-        <v>32.90527505596976</v>
+        <v>47.69834218982748</v>
       </c>
       <c r="G32">
-        <v>25.38325166072503</v>
+        <v>36.79467871167707</v>
       </c>
       <c r="H32">
-        <v>7.449837035676821</v>
+        <v>10.79902464215066</v>
       </c>
       <c r="I32">
-        <v>500.0851973729121</v>
+        <v>724.9061078440387</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>231.3581275975432</v>
+        <v>335.3686945261776</v>
       </c>
       <c r="C33">
-        <v>13.91046467013632</v>
+        <v>20.16412574358021</v>
       </c>
       <c r="D33">
-        <v>59.21781062905814</v>
+        <v>85.84007853794776</v>
       </c>
       <c r="E33">
-        <v>98.54380915642567</v>
+        <v>142.8456781424014</v>
       </c>
       <c r="F33">
-        <v>21.09312503587805</v>
+        <v>30.57586037809454</v>
       </c>
       <c r="G33">
-        <v>27.07546843810669</v>
+        <v>39.24765729245553</v>
       </c>
       <c r="H33">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I33">
-        <v>452.0265651977789</v>
+        <v>655.2419862475625</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>190.0861193386631</v>
+        <v>275.5422269022185</v>
       </c>
       <c r="C34">
-        <v>9.273643113424214</v>
+        <v>13.44275049572014</v>
       </c>
       <c r="D34">
-        <v>39.47854041937208</v>
+        <v>57.22671902529851</v>
       </c>
       <c r="E34">
-        <v>47.73215756014368</v>
+        <v>69.1908753502257</v>
       </c>
       <c r="F34">
-        <v>13.49960002296196</v>
+        <v>19.5685506419805</v>
       </c>
       <c r="G34">
-        <v>13.53773421905334</v>
+        <v>19.62382864622776</v>
       </c>
       <c r="H34">
-        <v>3.311038682523032</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I34">
-        <v>316.9188333561414</v>
+        <v>459.3945175692937</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>134.3856854283047</v>
+        <v>194.8008153121597</v>
       </c>
       <c r="C35">
-        <v>8.809960957753002</v>
+        <v>12.77061297093413</v>
       </c>
       <c r="D35">
-        <v>37.96013501862702</v>
+        <v>55.02569137047934</v>
       </c>
       <c r="E35">
-        <v>26.17569930717557</v>
+        <v>37.94338325657537</v>
       </c>
       <c r="F35">
-        <v>10.12470001722147</v>
+        <v>14.67641298148538</v>
       </c>
       <c r="G35">
-        <v>21.99881810596169</v>
+        <v>31.88872155012011</v>
       </c>
       <c r="H35">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I35">
-        <v>240.2827585056742</v>
+        <v>348.3055290686597</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>84.55728521331525</v>
+        <v>122.5712995222578</v>
       </c>
       <c r="C36">
-        <v>16.22887544849237</v>
+        <v>23.52481336751024</v>
       </c>
       <c r="D36">
-        <v>15.18405400745081</v>
+        <v>22.01027654819174</v>
       </c>
       <c r="E36">
-        <v>13.85772316262237</v>
+        <v>20.0876734887752</v>
       </c>
       <c r="F36">
-        <v>8.437250014351221</v>
+        <v>12.23034415123781</v>
       </c>
       <c r="G36">
-        <v>15.22995099643501</v>
+        <v>22.07680722700623</v>
       </c>
       <c r="H36">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I36">
-        <v>154.3228985132978</v>
+        <v>223.7011059318847</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>64.25682586646776</v>
+        <v>93.14445975600155</v>
       </c>
       <c r="C37">
-        <v>19.47465053819084</v>
+        <v>28.2297760410123</v>
       </c>
       <c r="D37">
-        <v>15.18405400745081</v>
+        <v>22.01027654819174</v>
       </c>
       <c r="E37">
-        <v>6.158988072276604</v>
+        <v>8.927854883900087</v>
       </c>
       <c r="F37">
-        <v>7.171662512198537</v>
+        <v>10.39579252855214</v>
       </c>
       <c r="G37">
-        <v>16.92216777381667</v>
+        <v>24.52978580778471</v>
       </c>
       <c r="H37">
-        <v>3.311038682523032</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I37">
-        <v>132.4793874529242</v>
+        <v>192.0375120730651</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>36.07106412869599</v>
+        <v>52.28735991524889</v>
       </c>
       <c r="C38">
-        <v>13.44678251446511</v>
+        <v>19.49198821879421</v>
       </c>
       <c r="D38">
-        <v>12.14724320596064</v>
+        <v>17.60822123855338</v>
       </c>
       <c r="E38">
-        <v>3.079494036138302</v>
+        <v>4.463927441950044</v>
       </c>
       <c r="F38">
-        <v>8.437250014351221</v>
+        <v>12.23034415123781</v>
       </c>
       <c r="G38">
-        <v>16.92216777381667</v>
+        <v>24.52978580778471</v>
       </c>
       <c r="H38">
-        <v>1.655519341261516</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I38">
-        <v>91.75952101468945</v>
+        <v>133.0114100273803</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>24.15922434666151</v>
+        <v>35.02037129207367</v>
       </c>
       <c r="C39">
-        <v>9.73732526909542</v>
+        <v>14.11488802050615</v>
       </c>
       <c r="D39">
-        <v>18.22086480894097</v>
+        <v>26.41233185783008</v>
       </c>
       <c r="E39">
-        <v>1.539747018069151</v>
+        <v>2.231963720975022</v>
       </c>
       <c r="F39">
-        <v>8.015387513633659</v>
+        <v>11.61882694367592</v>
       </c>
       <c r="G39">
-        <v>16.92216777381667</v>
+        <v>24.52978580778471</v>
       </c>
       <c r="H39">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I39">
-        <v>79.42247640084814</v>
+        <v>115.1280592697512</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>24.32699673795776</v>
+        <v>35.26356831493529</v>
       </c>
       <c r="C40">
-        <v>5.100503712383316</v>
+        <v>7.393512772646078</v>
       </c>
       <c r="D40">
-        <v>16.70245940819589</v>
+        <v>24.2113042030109</v>
       </c>
       <c r="E40">
-        <v>4.619241054207456</v>
+        <v>6.695891162925068</v>
       </c>
       <c r="F40">
-        <v>8.85911251506878</v>
+        <v>12.8418613587997</v>
       </c>
       <c r="G40">
-        <v>21.99881810596169</v>
+        <v>31.88872155012011</v>
       </c>
       <c r="H40">
-        <v>1.655519341261516</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I40">
-        <v>83.2626508750364</v>
+        <v>120.6946426162484</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>45.46631804128656</v>
+        <v>65.90639319549973</v>
       </c>
       <c r="C41">
-        <v>5.100503712383316</v>
+        <v>7.393512772646078</v>
       </c>
       <c r="D41">
-        <v>21.25767561043113</v>
+        <v>30.81438716746842</v>
       </c>
       <c r="E41">
-        <v>7.698735090345758</v>
+        <v>11.15981860487511</v>
       </c>
       <c r="F41">
-        <v>21.51498753659561</v>
+        <v>31.18737758565642</v>
       </c>
       <c r="G41">
-        <v>33.84433554763335</v>
+        <v>49.05957161556941</v>
       </c>
       <c r="H41">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I41">
-        <v>135.7103152093065</v>
+        <v>196.7209525686208</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>118.1117634725673</v>
+        <v>171.2107040945826</v>
       </c>
       <c r="C42">
-        <v>5.100503712383316</v>
+        <v>7.393512772646078</v>
       </c>
       <c r="D42">
-        <v>39.47854041937208</v>
+        <v>57.22671902529851</v>
       </c>
       <c r="E42">
-        <v>64.66937475890434</v>
+        <v>93.74247628095091</v>
       </c>
       <c r="F42">
-        <v>42.60811257247367</v>
+        <v>61.76323796375097</v>
       </c>
       <c r="G42">
-        <v>62.61202076312169</v>
+        <v>90.76020748880339</v>
       </c>
       <c r="H42">
-        <v>6.622077365046064</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I42">
-        <v>339.2023930638684</v>
+        <v>491.6959906412775</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>175.825466078481</v>
+        <v>254.8704799589807</v>
       </c>
       <c r="C43">
-        <v>2.318410778356053</v>
+        <v>3.360687623930035</v>
       </c>
       <c r="D43">
-        <v>56.18099982756798</v>
+        <v>81.43802322830943</v>
       </c>
       <c r="E43">
-        <v>126.2592554816704</v>
+        <v>183.0210251199518</v>
       </c>
       <c r="F43">
-        <v>51.88908758826001</v>
+        <v>75.21661653011255</v>
       </c>
       <c r="G43">
-        <v>125.2240415262434</v>
+        <v>181.5204149776068</v>
       </c>
       <c r="H43">
-        <v>7.449837035676821</v>
+        <v>10.79902464215066</v>
       </c>
       <c r="I43">
-        <v>545.1470983162558</v>
+        <v>790.226272081042</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>281.522072595125</v>
+        <v>408.0846043618029</v>
       </c>
       <c r="C44">
-        <v>7.88259664641058</v>
+        <v>11.42633792136212</v>
       </c>
       <c r="D44">
-        <v>71.36505383501878</v>
+        <v>103.4482997765012</v>
       </c>
       <c r="E44">
-        <v>141.6567256623619</v>
+        <v>205.340662329702</v>
       </c>
       <c r="F44">
-        <v>61.59192510476391</v>
+        <v>89.28151230403604</v>
       </c>
       <c r="G44">
-        <v>91.37970597861005</v>
+        <v>132.4608433620374</v>
       </c>
       <c r="H44">
-        <v>14.89967407135364</v>
+        <v>21.59804928430133</v>
       </c>
       <c r="I44">
-        <v>670.297753893644</v>
+        <v>971.6403093397429</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>285.7163823775316</v>
+        <v>414.1645299333434</v>
       </c>
       <c r="C45">
-        <v>16.22887544849237</v>
+        <v>23.52481336751024</v>
       </c>
       <c r="D45">
-        <v>86.54910784246957</v>
+        <v>125.4585763246929</v>
       </c>
       <c r="E45">
-        <v>73.9078568673193</v>
+        <v>107.1342586068011</v>
       </c>
       <c r="F45">
-        <v>70.45103761983269</v>
+        <v>102.1233736628357</v>
       </c>
       <c r="G45">
-        <v>103.2252234202818</v>
+        <v>149.6316934274867</v>
       </c>
       <c r="H45">
-        <v>6.622077365046064</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I45">
-        <v>642.7005609409733</v>
+        <v>931.6363783379151</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>245.2832360751328</v>
+        <v>355.5540474236925</v>
       </c>
       <c r="C46">
-        <v>25.03883640624537</v>
+        <v>36.29542633844438</v>
       </c>
       <c r="D46">
-        <v>133.6196752655671</v>
+        <v>193.6904336240872</v>
       </c>
       <c r="E46">
-        <v>67.74886879504264</v>
+        <v>98.20640372290093</v>
       </c>
       <c r="F46">
-        <v>77.20083763131368</v>
+        <v>111.907648983826</v>
       </c>
       <c r="G46">
-        <v>109.9940905298084</v>
+        <v>159.4436077506006</v>
       </c>
       <c r="H46">
-        <v>6.622077365046064</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I46">
-        <v>665.5076220681561</v>
+        <v>964.6967008587966</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>182.5363617303314</v>
+        <v>264.5983608734456</v>
       </c>
       <c r="C47">
-        <v>19.01096838251964</v>
+        <v>27.55763851622629</v>
       </c>
       <c r="D47">
-        <v>77.43867543799909</v>
+        <v>112.2524103957778</v>
       </c>
       <c r="E47">
-        <v>29.25519334331387</v>
+        <v>42.40731069852541</v>
       </c>
       <c r="F47">
-        <v>68.34172511624489</v>
+        <v>99.06578762502629</v>
       </c>
       <c r="G47">
-        <v>74.45753820479337</v>
+        <v>107.9310575542527</v>
       </c>
       <c r="H47">
-        <v>4.138798353153791</v>
+        <v>5.999458134528146</v>
       </c>
       <c r="I47">
-        <v>455.179260568356</v>
+        <v>659.8120237977822</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>191.5960708603294</v>
+        <v>277.7310001079733</v>
       </c>
       <c r="C48">
-        <v>19.01096838251964</v>
+        <v>27.55763851622629</v>
       </c>
       <c r="D48">
-        <v>68.32824303352862</v>
+        <v>99.04624446686282</v>
       </c>
       <c r="E48">
-        <v>29.25519334331387</v>
+        <v>42.40731069852541</v>
       </c>
       <c r="F48">
-        <v>64.12310010906927</v>
+        <v>92.95061554940739</v>
       </c>
       <c r="G48">
-        <v>65.99645431788505</v>
+        <v>95.66616465036034</v>
       </c>
       <c r="H48">
-        <v>8.277596706307582</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I48">
-        <v>446.5876267529535</v>
+        <v>647.3578902584118</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>193.2737947732921</v>
+        <v>280.1629703365894</v>
       </c>
       <c r="C49">
-        <v>14.83782898147874</v>
+        <v>21.50840079315222</v>
       </c>
       <c r="D49">
-        <v>72.88345923576388</v>
+        <v>105.6493274313203</v>
       </c>
       <c r="E49">
-        <v>27.71544632524473</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F49">
-        <v>50.62350008610733</v>
+        <v>73.38206490742687</v>
       </c>
       <c r="G49">
-        <v>60.91980398574004</v>
+        <v>88.30722890802494</v>
       </c>
       <c r="H49">
-        <v>5.794317694415305</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I49">
-        <v>426.0481510820421</v>
+        <v>617.5845807424035</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_재비산_TSP.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>363.0931551324028</v>
+        <v>246.7813705848905</v>
       </c>
       <c r="C2">
-        <v>32.26260118972834</v>
+        <v>21.9277307426288</v>
       </c>
       <c r="D2">
-        <v>140.865769908427</v>
+        <v>95.74140210332808</v>
       </c>
       <c r="E2">
-        <v>40.17534697755039</v>
+        <v>27.30573972739328</v>
       </c>
       <c r="F2">
-        <v>122.91495871994</v>
+        <v>83.5408807616629</v>
       </c>
       <c r="G2">
-        <v>83.40127174646796</v>
+        <v>56.68484756373618</v>
       </c>
       <c r="H2">
-        <v>15.59859114977318</v>
+        <v>10.60180190323516</v>
       </c>
       <c r="I2">
-        <v>798.3116948242897</v>
+        <v>542.5837733868748</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>375.0098092526223</v>
+        <v>254.8806921914943</v>
       </c>
       <c r="C3">
-        <v>35.62328881365838</v>
+        <v>24.21186936165263</v>
       </c>
       <c r="D3">
-        <v>143.0667975632463</v>
+        <v>97.23736151119255</v>
       </c>
       <c r="E3">
-        <v>40.17534697755039</v>
+        <v>27.30573972739328</v>
       </c>
       <c r="F3">
-        <v>118.6343382670068</v>
+        <v>80.6314968545403</v>
       </c>
       <c r="G3">
-        <v>66.23042168101868</v>
+        <v>45.01443777120227</v>
       </c>
       <c r="H3">
-        <v>14.39869952286755</v>
+        <v>9.78627867990938</v>
       </c>
       <c r="I3">
-        <v>793.1387020779704</v>
+        <v>539.0678760973847</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>379.8737497098547</v>
+        <v>258.1865377452102</v>
       </c>
       <c r="C4">
-        <v>32.93473871451435</v>
+        <v>22.38455846643357</v>
       </c>
       <c r="D4">
-        <v>145.2678252180654</v>
+        <v>98.73332091905709</v>
       </c>
       <c r="E4">
-        <v>37.94338325657537</v>
+        <v>25.78875418698255</v>
       </c>
       <c r="F4">
-        <v>110.6846145687022</v>
+        <v>75.22835531274123</v>
       </c>
       <c r="G4">
-        <v>66.23042168101868</v>
+        <v>45.01443777120227</v>
       </c>
       <c r="H4">
-        <v>13.19880789596192</v>
+        <v>8.970755456583596</v>
       </c>
       <c r="I4">
-        <v>786.1335410446927</v>
+        <v>534.3067198582104</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>410.7597716132808</v>
+        <v>279.1786570113061</v>
       </c>
       <c r="C5">
-        <v>27.55763851622629</v>
+        <v>18.72993667599543</v>
       </c>
       <c r="D5">
-        <v>151.870908182523</v>
+        <v>103.2211991426506</v>
       </c>
       <c r="E5">
-        <v>64.72694790827565</v>
+        <v>43.9925806719114</v>
       </c>
       <c r="F5">
-        <v>108.8500629460165</v>
+        <v>73.98147649540296</v>
       </c>
       <c r="G5">
-        <v>63.77744310024022</v>
+        <v>43.34723637226885</v>
       </c>
       <c r="H5">
-        <v>11.99891626905629</v>
+        <v>8.155232233257816</v>
       </c>
       <c r="I5">
-        <v>839.5416885356188</v>
+        <v>570.6063186027933</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>468.8838600772086</v>
+        <v>318.6835113782108</v>
       </c>
       <c r="C6">
-        <v>26.21336346665428</v>
+        <v>17.8162812283859</v>
       </c>
       <c r="D6">
-        <v>138.664742253608</v>
+        <v>94.24544269546357</v>
       </c>
       <c r="E6">
-        <v>142.8456781424014</v>
+        <v>97.08707458628722</v>
       </c>
       <c r="F6">
-        <v>91.72758113428362</v>
+        <v>62.34394086691261</v>
       </c>
       <c r="G6">
-        <v>31.88872155012011</v>
+        <v>21.67361818613443</v>
       </c>
       <c r="H6">
-        <v>10.79902464215066</v>
+        <v>7.339709009932033</v>
       </c>
       <c r="I6">
-        <v>911.0229712664266</v>
+        <v>619.1895779513264</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>500.4994730492198</v>
+        <v>340.1715074773642</v>
       </c>
       <c r="C7">
-        <v>10.08206287179011</v>
+        <v>6.852415857071499</v>
       </c>
       <c r="D7">
-        <v>94.64418915722445</v>
+        <v>64.32625453817356</v>
       </c>
       <c r="E7">
-        <v>149.5415693053265</v>
+        <v>101.6380312075194</v>
       </c>
       <c r="F7">
-        <v>59.31716913350341</v>
+        <v>40.31574842727015</v>
       </c>
       <c r="G7">
-        <v>31.88872155012011</v>
+        <v>21.67361818613443</v>
       </c>
       <c r="H7">
-        <v>11.99891626905629</v>
+        <v>8.155232233257816</v>
       </c>
       <c r="I7">
-        <v>857.9721013362406</v>
+        <v>583.132807926791</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>380.8465378013014</v>
+        <v>258.8477068559534</v>
       </c>
       <c r="C8">
-        <v>12.77061297093413</v>
+        <v>8.679726752290566</v>
       </c>
       <c r="D8">
-        <v>129.8606316343312</v>
+        <v>88.26160506400555</v>
       </c>
       <c r="E8">
-        <v>89.2785488390009</v>
+        <v>60.67942161642953</v>
       </c>
       <c r="F8">
-        <v>44.02923894445613</v>
+        <v>29.92509161611805</v>
       </c>
       <c r="G8">
-        <v>29.43574296934164</v>
+        <v>20.00641678720101</v>
       </c>
       <c r="H8">
-        <v>2.399783253811258</v>
+        <v>1.631046446651563</v>
       </c>
       <c r="I8">
-        <v>688.6210964131767</v>
+        <v>468.0310151386496</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>303.2666875084437</v>
+        <v>206.1194702741853</v>
       </c>
       <c r="C9">
-        <v>13.44275049572014</v>
+        <v>9.136554476095334</v>
       </c>
       <c r="D9">
-        <v>81.43802322830943</v>
+        <v>55.35049809098656</v>
       </c>
       <c r="E9">
-        <v>169.6292427941016</v>
+        <v>115.2909010712161</v>
       </c>
       <c r="F9">
-        <v>20.1800678495424</v>
+        <v>13.71566699072078</v>
       </c>
       <c r="G9">
-        <v>34.34170013089857</v>
+        <v>23.34081958506784</v>
       </c>
       <c r="H9">
-        <v>3.599674880716888</v>
+        <v>2.446569669977345</v>
       </c>
       <c r="I9">
-        <v>625.8981468877327</v>
+        <v>425.4004801582493</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>251.2225246160563</v>
+        <v>170.7469228494252</v>
       </c>
       <c r="C10">
-        <v>6.721375247860069</v>
+        <v>4.568277238047667</v>
       </c>
       <c r="D10">
-        <v>68.23185729939436</v>
+        <v>46.37474164379952</v>
       </c>
       <c r="E10">
-        <v>84.81462139705081</v>
+        <v>57.64545053560806</v>
       </c>
       <c r="F10">
-        <v>18.95703343441861</v>
+        <v>12.88441444582861</v>
       </c>
       <c r="G10">
-        <v>41.70063587323398</v>
+        <v>28.34242378186809</v>
       </c>
       <c r="H10">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I10">
-        <v>472.8479394949198</v>
+        <v>321.3777537179029</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>178.5066147804312</v>
+        <v>121.3245318213728</v>
       </c>
       <c r="C11">
-        <v>13.44275049572014</v>
+        <v>9.136554476095334</v>
       </c>
       <c r="D11">
-        <v>35.21644247710676</v>
+        <v>23.93535052583202</v>
       </c>
       <c r="E11">
-        <v>40.17534697755039</v>
+        <v>27.30573972739328</v>
       </c>
       <c r="F11">
-        <v>20.79158505710429</v>
+        <v>14.13129326316686</v>
       </c>
       <c r="G11">
-        <v>29.43574296934164</v>
+        <v>20.00641678720101</v>
       </c>
       <c r="H11">
-        <v>4.799566507622516</v>
+        <v>3.262092893303126</v>
       </c>
       <c r="I11">
-        <v>322.3680492648768</v>
+        <v>219.1019794943644</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>109.6818573105919</v>
+        <v>74.54681723629312</v>
       </c>
       <c r="C12">
-        <v>13.44275049572014</v>
+        <v>9.136554476095334</v>
       </c>
       <c r="D12">
-        <v>19.80924889337256</v>
+        <v>13.46363467078051</v>
       </c>
       <c r="E12">
-        <v>20.0876734887752</v>
+        <v>13.65286986369664</v>
       </c>
       <c r="F12">
-        <v>11.61882694367592</v>
+        <v>7.896899176475598</v>
       </c>
       <c r="G12">
-        <v>22.07680722700623</v>
+        <v>15.00481259040075</v>
       </c>
       <c r="H12">
-        <v>2.399783253811258</v>
+        <v>1.631046446651563</v>
       </c>
       <c r="I12">
-        <v>199.1169476129532</v>
+        <v>135.3326344603935</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>77.82304731571934</v>
+        <v>52.89352885945409</v>
       </c>
       <c r="C13">
-        <v>20.16412574358021</v>
+        <v>13.704831714143</v>
       </c>
       <c r="D13">
-        <v>22.01027654819174</v>
+        <v>14.95959407864501</v>
       </c>
       <c r="E13">
-        <v>13.39178232585014</v>
+        <v>9.10191324246443</v>
       </c>
       <c r="F13">
-        <v>12.23034415123781</v>
+        <v>8.312525448921681</v>
       </c>
       <c r="G13">
-        <v>26.98276438856317</v>
+        <v>18.33921538826759</v>
       </c>
       <c r="I13">
-        <v>172.6023404731424</v>
+        <v>117.3116087318958</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>51.31457182380243</v>
+        <v>34.87667059170254</v>
       </c>
       <c r="C14">
-        <v>21.50840079315222</v>
+        <v>14.61848716175253</v>
       </c>
       <c r="D14">
-        <v>13.20616592891504</v>
+        <v>8.97575644718701</v>
       </c>
       <c r="E14">
-        <v>6.695891162925068</v>
+        <v>4.550956621232215</v>
       </c>
       <c r="F14">
-        <v>13.45337856636159</v>
+        <v>9.143777993813849</v>
       </c>
       <c r="G14">
-        <v>39.24765729245553</v>
+        <v>26.67522238293467</v>
       </c>
       <c r="H14">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I14">
-        <v>146.6259571945175</v>
+        <v>99.6563944219486</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>39.15472068072126</v>
+        <v>26.61205670741285</v>
       </c>
       <c r="C15">
-        <v>16.13130059486417</v>
+        <v>10.9638653713144</v>
       </c>
       <c r="D15">
-        <v>24.2113042030109</v>
+        <v>16.45555348650951</v>
       </c>
       <c r="E15">
-        <v>8.927854883900087</v>
+        <v>6.067942161642951</v>
       </c>
       <c r="F15">
-        <v>10.39579252855214</v>
+        <v>7.065646631583431</v>
       </c>
       <c r="G15">
-        <v>34.34170013089857</v>
+        <v>23.34081958506784</v>
       </c>
       <c r="H15">
-        <v>2.399783253811258</v>
+        <v>1.631046446651563</v>
       </c>
       <c r="I15">
-        <v>135.5624562757584</v>
+        <v>92.13693039018256</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>35.74996236065856</v>
+        <v>24.29796481981173</v>
       </c>
       <c r="C16">
-        <v>6.049237723074063</v>
+        <v>4.1114495142429</v>
       </c>
       <c r="D16">
-        <v>28.61335951264925</v>
+        <v>19.44747230223851</v>
       </c>
       <c r="E16">
-        <v>6.695891162925068</v>
+        <v>4.550956621232215</v>
       </c>
       <c r="F16">
-        <v>9.78427532099025</v>
+        <v>6.650020359137345</v>
       </c>
       <c r="G16">
-        <v>29.43574296934164</v>
+        <v>20.00641678720101</v>
       </c>
       <c r="H16">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I16">
-        <v>117.5283606765444</v>
+        <v>79.87980362718949</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>71.98631876704033</v>
+        <v>48.92651419499505</v>
       </c>
       <c r="C17">
-        <v>8.737787822218092</v>
+        <v>5.938760409461968</v>
       </c>
       <c r="D17">
-        <v>44.02055309638349</v>
+        <v>29.91918815729003</v>
       </c>
       <c r="E17">
-        <v>6.695891162925068</v>
+        <v>4.550956621232215</v>
       </c>
       <c r="F17">
-        <v>22.62613667978996</v>
+        <v>15.37817208050511</v>
       </c>
       <c r="G17">
-        <v>44.15361445401247</v>
+        <v>30.0096251808015</v>
       </c>
       <c r="H17">
-        <v>3.599674880716888</v>
+        <v>2.446569669977345</v>
       </c>
       <c r="I17">
-        <v>201.8199768630863</v>
+        <v>137.1697863142632</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>158.5644589057781</v>
+        <v>107.7705650511378</v>
       </c>
       <c r="C18">
-        <v>5.377100198288056</v>
+        <v>3.654621790438133</v>
       </c>
       <c r="D18">
-        <v>70.43288495421352</v>
+        <v>47.87070105166404</v>
       </c>
       <c r="E18">
-        <v>107.1342586068011</v>
+        <v>72.81530593971544</v>
       </c>
       <c r="F18">
-        <v>51.97896264276071</v>
+        <v>35.32823315791715</v>
       </c>
       <c r="G18">
-        <v>80.94829316568951</v>
+        <v>55.01764616480276</v>
       </c>
       <c r="H18">
-        <v>3.599674880716888</v>
+        <v>2.446569669977345</v>
       </c>
       <c r="I18">
-        <v>478.0356333542478</v>
+        <v>324.9036428256526</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>279.190182245143</v>
+        <v>189.7555347832916</v>
       </c>
       <c r="C19">
-        <v>9.409925347004098</v>
+        <v>6.395588133266734</v>
       </c>
       <c r="D19">
-        <v>129.8606316343312</v>
+        <v>88.26160506400555</v>
       </c>
       <c r="E19">
-        <v>220.9644083765272</v>
+        <v>150.1815685006631</v>
       </c>
       <c r="F19">
-        <v>88.05847788891226</v>
+        <v>59.85018323223611</v>
       </c>
       <c r="G19">
-        <v>144.7257362659297</v>
+        <v>98.36488253707164</v>
       </c>
       <c r="H19">
-        <v>11.99891626905629</v>
+        <v>8.155232233257816</v>
       </c>
       <c r="I19">
-        <v>884.2082780269039</v>
+        <v>600.9645944837926</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>378.1713705498235</v>
+        <v>257.0294918014096</v>
       </c>
       <c r="C20">
-        <v>10.08206287179011</v>
+        <v>6.852415857071499</v>
       </c>
       <c r="D20">
-        <v>114.453438050597</v>
+        <v>77.78988920895405</v>
       </c>
       <c r="E20">
-        <v>191.9488800038519</v>
+        <v>130.4607564753234</v>
       </c>
       <c r="F20">
-        <v>85.61240905866468</v>
+        <v>58.18767814245177</v>
       </c>
       <c r="G20">
-        <v>125.1019076197019</v>
+        <v>85.02727134560426</v>
       </c>
       <c r="H20">
-        <v>11.99891626905629</v>
+        <v>8.155232233257816</v>
       </c>
       <c r="I20">
-        <v>917.3689844234854</v>
+        <v>623.5027350640725</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>299.8619291883809</v>
+        <v>203.8053783865839</v>
       </c>
       <c r="C21">
-        <v>10.75420039657611</v>
+        <v>7.309243580876266</v>
       </c>
       <c r="D21">
-        <v>57.22671902529851</v>
+        <v>38.89494460447703</v>
       </c>
       <c r="E21">
-        <v>80.35069395510078</v>
+        <v>54.61147945478657</v>
       </c>
       <c r="F21">
-        <v>67.26689283180799</v>
+        <v>45.71888996906925</v>
       </c>
       <c r="G21">
-        <v>90.76020748880339</v>
+        <v>61.68645176053642</v>
       </c>
       <c r="H21">
-        <v>4.799566507622516</v>
+        <v>3.262092893303126</v>
       </c>
       <c r="I21">
-        <v>611.0202093935903</v>
+        <v>415.2884806496326</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>355.0676533779693</v>
+        <v>241.3267254212593</v>
       </c>
       <c r="C22">
-        <v>33.60687623930036</v>
+        <v>22.84138619023833</v>
       </c>
       <c r="D22">
-        <v>178.283240040353</v>
+        <v>121.1727120370246</v>
       </c>
       <c r="E22">
-        <v>82.58265767607583</v>
+        <v>56.12846499519731</v>
       </c>
       <c r="F22">
-        <v>127.1955791728733</v>
+        <v>86.45026466878549</v>
       </c>
       <c r="G22">
-        <v>164.3495649121575</v>
+        <v>111.7024937285389</v>
       </c>
       <c r="H22">
-        <v>4.799566507622516</v>
+        <v>3.262092893303126</v>
       </c>
       <c r="I22">
-        <v>945.8851379263519</v>
+        <v>642.8841399343471</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>319.0744939944492</v>
+        <v>216.8634683237619</v>
       </c>
       <c r="C23">
-        <v>34.95115128887237</v>
+        <v>23.75504163784787</v>
       </c>
       <c r="D23">
-        <v>145.2678252180654</v>
+        <v>98.73332091905709</v>
       </c>
       <c r="E23">
-        <v>51.33516558242551</v>
+        <v>34.89066742944699</v>
       </c>
       <c r="F23">
-        <v>137.5913717014254</v>
+        <v>93.51591130036891</v>
       </c>
       <c r="G23">
-        <v>125.1019076197019</v>
+        <v>85.02727134560426</v>
       </c>
       <c r="H23">
-        <v>5.999458134528146</v>
+        <v>4.077616116628908</v>
       </c>
       <c r="I23">
-        <v>819.3213735394679</v>
+        <v>556.8632970727159</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>334.8823004804546</v>
+        <v>227.6074663733385</v>
       </c>
       <c r="C24">
-        <v>34.95115128887237</v>
+        <v>23.75504163784787</v>
       </c>
       <c r="D24">
-        <v>129.8606316343312</v>
+        <v>88.26160506400555</v>
       </c>
       <c r="E24">
-        <v>49.10320186145047</v>
+        <v>33.37368188903623</v>
       </c>
       <c r="F24">
-        <v>128.418613587997</v>
+        <v>87.28151721367766</v>
       </c>
       <c r="G24">
-        <v>110.3840361350311</v>
+        <v>75.02406295200377</v>
       </c>
       <c r="H24">
-        <v>11.99891626905629</v>
+        <v>8.155232233257816</v>
       </c>
       <c r="I24">
-        <v>799.5988512571931</v>
+        <v>543.4586073631674</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>337.8006647547941</v>
+        <v>229.5909737055679</v>
       </c>
       <c r="C25">
-        <v>26.88550099144028</v>
+        <v>18.27310895219067</v>
       </c>
       <c r="D25">
-        <v>136.4637145987887</v>
+        <v>92.74948328759905</v>
       </c>
       <c r="E25">
-        <v>46.87123814047546</v>
+        <v>31.8566963486255</v>
       </c>
       <c r="F25">
-        <v>101.5118564552738</v>
+        <v>68.99396122604996</v>
       </c>
       <c r="G25">
-        <v>103.0251003926957</v>
+        <v>70.02245875520353</v>
       </c>
       <c r="H25">
-        <v>8.399241388339403</v>
+        <v>5.708662563280472</v>
       </c>
       <c r="I25">
-        <v>760.9573167218075</v>
+        <v>517.1953448385171</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>347.5285456692592</v>
+        <v>236.2026648129997</v>
       </c>
       <c r="C26">
-        <v>28.9019135657983</v>
+        <v>19.64359212360497</v>
       </c>
       <c r="D26">
-        <v>121.0565210150545</v>
+        <v>82.27776743254756</v>
       </c>
       <c r="E26">
-        <v>26.78356465170027</v>
+        <v>18.20382648492886</v>
       </c>
       <c r="F26">
-        <v>129.6416480031208</v>
+        <v>88.11276975856981</v>
       </c>
       <c r="G26">
-        <v>137.3668005235943</v>
+        <v>93.36327834027138</v>
       </c>
       <c r="H26">
-        <v>9.599133015245032</v>
+        <v>6.524185786606252</v>
       </c>
       <c r="I26">
-        <v>800.8781264437724</v>
+        <v>544.3280847395285</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>364.7955342924342</v>
+        <v>247.938416528691</v>
       </c>
       <c r="C27">
-        <v>22.85267584272424</v>
+        <v>15.53214260936207</v>
       </c>
       <c r="D27">
-        <v>169.4791294210764</v>
+        <v>115.1888744055666</v>
       </c>
       <c r="E27">
-        <v>53.56712930340054</v>
+        <v>36.40765296985772</v>
       </c>
       <c r="F27">
-        <v>108.8500629460165</v>
+        <v>73.98147649540296</v>
       </c>
       <c r="G27">
-        <v>53.96552877712634</v>
+        <v>36.67843077653517</v>
       </c>
       <c r="H27">
-        <v>8.399241388339403</v>
+        <v>5.708662563280472</v>
       </c>
       <c r="I27">
-        <v>781.9093019711178</v>
+        <v>531.4356563486959</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>353.1220771950761</v>
+        <v>240.0043871997728</v>
       </c>
       <c r="C28">
-        <v>34.95115128887237</v>
+        <v>23.75504163784787</v>
       </c>
       <c r="D28">
-        <v>167.2781017662572</v>
+        <v>113.6929149977021</v>
       </c>
       <c r="E28">
-        <v>49.10320186145047</v>
+        <v>33.37368188903623</v>
       </c>
       <c r="F28">
-        <v>102.7348908703976</v>
+        <v>69.82521377094213</v>
       </c>
       <c r="G28">
-        <v>110.3840361350311</v>
+        <v>75.02406295200377</v>
       </c>
       <c r="H28">
-        <v>19.19826603049006</v>
+        <v>13.0483715732125</v>
       </c>
       <c r="I28">
-        <v>836.7717251475751</v>
+        <v>568.7236740205175</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>388.3856455100116</v>
+        <v>263.9717674642131</v>
       </c>
       <c r="C29">
-        <v>30.24618861537032</v>
+        <v>20.5572475712145</v>
       </c>
       <c r="D29">
-        <v>162.8760464566189</v>
+        <v>110.7009961819731</v>
       </c>
       <c r="E29">
-        <v>64.72694790827565</v>
+        <v>43.9925806719114</v>
       </c>
       <c r="F29">
-        <v>102.1233736628357</v>
+        <v>69.40958749849604</v>
       </c>
       <c r="G29">
-        <v>66.23042168101868</v>
+        <v>45.01443777120227</v>
       </c>
       <c r="H29">
-        <v>29.99729067264073</v>
+        <v>20.38808058314454</v>
       </c>
       <c r="I29">
-        <v>844.5859145067716</v>
+        <v>574.034697742155</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>486.6372427461074</v>
+        <v>330.7498476492739</v>
       </c>
       <c r="C30">
-        <v>14.78702554529216</v>
+        <v>10.05020992370486</v>
       </c>
       <c r="D30">
-        <v>103.4482997765012</v>
+        <v>70.31009216963157</v>
       </c>
       <c r="E30">
-        <v>107.1342586068011</v>
+        <v>72.81530593971544</v>
       </c>
       <c r="F30">
-        <v>88.66999509647415</v>
+        <v>60.2658095046822</v>
       </c>
       <c r="G30">
-        <v>51.51255019634785</v>
+        <v>35.01122937760177</v>
       </c>
       <c r="H30">
-        <v>15.59859114977318</v>
+        <v>10.60180190323516</v>
       </c>
       <c r="I30">
-        <v>867.787963117297</v>
+        <v>589.804296467845</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>506.3362015978988</v>
+        <v>344.1385221418231</v>
       </c>
       <c r="C31">
-        <v>19.49198821879421</v>
+        <v>13.24800399033823</v>
       </c>
       <c r="D31">
-        <v>129.8606316343312</v>
+        <v>88.26160506400555</v>
       </c>
       <c r="E31">
-        <v>156.2374604682515</v>
+        <v>106.1889878287516</v>
       </c>
       <c r="F31">
-        <v>67.87841003936987</v>
+        <v>46.13451624151533</v>
       </c>
       <c r="G31">
-        <v>46.60659303479093</v>
+        <v>31.67682657973493</v>
       </c>
       <c r="H31">
-        <v>4.799566507622516</v>
+        <v>3.262092893303126</v>
       </c>
       <c r="I31">
-        <v>931.2108515010592</v>
+        <v>632.910554739472</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>400.5454966530926</v>
+        <v>272.2363813485028</v>
       </c>
       <c r="C32">
-        <v>14.11488802050615</v>
+        <v>9.593382199900098</v>
       </c>
       <c r="D32">
-        <v>110.0513827409587</v>
+        <v>74.79797039322509</v>
       </c>
       <c r="E32">
-        <v>104.9022948858261</v>
+        <v>71.2983203993047</v>
       </c>
       <c r="F32">
-        <v>47.69834218982748</v>
+        <v>32.41884925079456</v>
       </c>
       <c r="G32">
-        <v>36.79467871167707</v>
+        <v>25.00802098400126</v>
       </c>
       <c r="H32">
-        <v>10.79902464215066</v>
+        <v>7.339709009932033</v>
       </c>
       <c r="I32">
-        <v>724.9061078440387</v>
+        <v>492.6926335856605</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>335.3686945261776</v>
+        <v>227.9380509287099</v>
       </c>
       <c r="C33">
-        <v>20.16412574358021</v>
+        <v>13.704831714143</v>
       </c>
       <c r="D33">
-        <v>85.84007853794776</v>
+        <v>58.34241690671556</v>
       </c>
       <c r="E33">
-        <v>142.8456781424014</v>
+        <v>97.08707458628722</v>
       </c>
       <c r="F33">
-        <v>30.57586037809454</v>
+        <v>20.7813136223042</v>
       </c>
       <c r="G33">
-        <v>39.24765729245553</v>
+        <v>26.67522238293467</v>
       </c>
       <c r="H33">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I33">
-        <v>655.2419862475625</v>
+        <v>445.3444333644204</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>275.5422269022185</v>
+        <v>187.2761506180046</v>
       </c>
       <c r="C34">
-        <v>13.44275049572014</v>
+        <v>9.136554476095334</v>
       </c>
       <c r="D34">
-        <v>57.22671902529851</v>
+        <v>38.89494460447703</v>
       </c>
       <c r="E34">
-        <v>69.1908753502257</v>
+        <v>47.02655175273286</v>
       </c>
       <c r="F34">
-        <v>19.5685506419805</v>
+        <v>13.30004071827469</v>
       </c>
       <c r="G34">
-        <v>19.62382864622776</v>
+        <v>13.33761119146734</v>
       </c>
       <c r="H34">
-        <v>4.799566507622516</v>
+        <v>3.262092893303126</v>
       </c>
       <c r="I34">
-        <v>459.3945175692937</v>
+        <v>312.233946254355</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>194.8008153121597</v>
+        <v>132.3991144263211</v>
       </c>
       <c r="C35">
-        <v>12.77061297093413</v>
+        <v>8.679726752290566</v>
       </c>
       <c r="D35">
-        <v>55.02569137047934</v>
+        <v>37.39898519661254</v>
       </c>
       <c r="E35">
-        <v>37.94338325657537</v>
+        <v>25.78875418698255</v>
       </c>
       <c r="F35">
-        <v>14.67641298148538</v>
+        <v>9.975030538706019</v>
       </c>
       <c r="G35">
-        <v>31.88872155012011</v>
+        <v>21.67361818613443</v>
       </c>
       <c r="H35">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I35">
-        <v>348.3055290686597</v>
+        <v>236.730752510373</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>122.5712995222578</v>
+        <v>83.3073079536402</v>
       </c>
       <c r="C36">
-        <v>23.52481336751024</v>
+        <v>15.98897033316683</v>
       </c>
       <c r="D36">
-        <v>22.01027654819174</v>
+        <v>14.95959407864501</v>
       </c>
       <c r="E36">
-        <v>20.0876734887752</v>
+        <v>13.65286986369664</v>
       </c>
       <c r="F36">
-        <v>12.23034415123781</v>
+        <v>8.312525448921681</v>
       </c>
       <c r="G36">
-        <v>22.07680722700623</v>
+        <v>15.00481259040075</v>
       </c>
       <c r="H36">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I36">
-        <v>223.7011059318847</v>
+        <v>152.0416034917969</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>93.14445975600155</v>
+        <v>63.30694235365911</v>
       </c>
       <c r="C37">
-        <v>28.2297760410123</v>
+        <v>19.1867643998002</v>
       </c>
       <c r="D37">
-        <v>22.01027654819174</v>
+        <v>14.95959407864501</v>
       </c>
       <c r="E37">
-        <v>8.927854883900087</v>
+        <v>6.067942161642951</v>
       </c>
       <c r="F37">
-        <v>10.39579252855214</v>
+        <v>7.065646631583431</v>
       </c>
       <c r="G37">
-        <v>24.52978580778471</v>
+        <v>16.67201398933418</v>
       </c>
       <c r="H37">
-        <v>4.799566507622516</v>
+        <v>3.262092893303126</v>
       </c>
       <c r="I37">
-        <v>192.0375120730651</v>
+        <v>130.520996507968</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>52.28735991524889</v>
+        <v>35.53783970244571</v>
       </c>
       <c r="C38">
-        <v>19.49198821879421</v>
+        <v>13.24800399033823</v>
       </c>
       <c r="D38">
-        <v>17.60822123855338</v>
+        <v>11.96767526291601</v>
       </c>
       <c r="E38">
-        <v>4.463927441950044</v>
+        <v>3.033971080821475</v>
       </c>
       <c r="F38">
-        <v>12.23034415123781</v>
+        <v>8.312525448921681</v>
       </c>
       <c r="G38">
-        <v>24.52978580778471</v>
+        <v>16.67201398933418</v>
       </c>
       <c r="H38">
-        <v>2.399783253811258</v>
+        <v>1.631046446651563</v>
       </c>
       <c r="I38">
-        <v>133.0114100273803</v>
+        <v>90.40307592142885</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>35.02037129207367</v>
+        <v>23.80208798675434</v>
       </c>
       <c r="C39">
-        <v>14.11488802050615</v>
+        <v>9.593382199900098</v>
       </c>
       <c r="D39">
-        <v>26.41233185783008</v>
+        <v>17.95151289437402</v>
       </c>
       <c r="E39">
-        <v>2.231963720975022</v>
+        <v>1.516985540410738</v>
       </c>
       <c r="F39">
-        <v>11.61882694367592</v>
+        <v>7.896899176475598</v>
       </c>
       <c r="G39">
-        <v>24.52978580778471</v>
+        <v>16.67201398933418</v>
       </c>
       <c r="H39">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I39">
-        <v>115.1280592697512</v>
+        <v>78.24840501057476</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>35.26356831493529</v>
+        <v>23.96738026444012</v>
       </c>
       <c r="C40">
-        <v>7.393512772646078</v>
+        <v>5.025104961852432</v>
       </c>
       <c r="D40">
-        <v>24.2113042030109</v>
+        <v>16.45555348650951</v>
       </c>
       <c r="E40">
-        <v>6.695891162925068</v>
+        <v>4.550956621232215</v>
       </c>
       <c r="F40">
-        <v>12.8418613587997</v>
+        <v>8.728151721367766</v>
       </c>
       <c r="G40">
-        <v>31.88872155012011</v>
+        <v>21.67361818613443</v>
       </c>
       <c r="H40">
-        <v>2.399783253811258</v>
+        <v>1.631046446651563</v>
       </c>
       <c r="I40">
-        <v>120.6946426162484</v>
+        <v>82.03181168818804</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>65.90639319549973</v>
+        <v>44.79420725285017</v>
       </c>
       <c r="C41">
-        <v>7.393512772646078</v>
+        <v>5.025104961852432</v>
       </c>
       <c r="D41">
-        <v>30.81438716746842</v>
+        <v>20.94343171010302</v>
       </c>
       <c r="E41">
-        <v>11.15981860487511</v>
+        <v>7.584927702053691</v>
       </c>
       <c r="F41">
-        <v>31.18737758565642</v>
+        <v>21.19693989475029</v>
       </c>
       <c r="G41">
-        <v>49.05957161556941</v>
+        <v>33.34402797866835</v>
       </c>
       <c r="H41">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I41">
-        <v>196.7209525686208</v>
+        <v>133.7041627236037</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>171.2107040945826</v>
+        <v>116.365763490799</v>
       </c>
       <c r="C42">
-        <v>7.393512772646078</v>
+        <v>5.025104961852432</v>
       </c>
       <c r="D42">
-        <v>57.22671902529851</v>
+        <v>38.89494460447703</v>
       </c>
       <c r="E42">
-        <v>93.74247628095091</v>
+        <v>63.713392697251</v>
       </c>
       <c r="F42">
-        <v>61.76323796375097</v>
+        <v>41.97825351705449</v>
       </c>
       <c r="G42">
-        <v>90.76020748880339</v>
+        <v>61.68645176053642</v>
       </c>
       <c r="H42">
-        <v>9.599133015245032</v>
+        <v>6.524185786606252</v>
       </c>
       <c r="I42">
-        <v>491.6959906412775</v>
+        <v>334.1880968185767</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>254.8704799589807</v>
+        <v>173.2263070147122</v>
       </c>
       <c r="C43">
-        <v>3.360687623930035</v>
+        <v>2.284138619023834</v>
       </c>
       <c r="D43">
-        <v>81.43802322830943</v>
+        <v>55.35049809098656</v>
       </c>
       <c r="E43">
-        <v>183.0210251199518</v>
+        <v>124.3928143136805</v>
       </c>
       <c r="F43">
-        <v>75.21661653011255</v>
+        <v>51.12203151086834</v>
       </c>
       <c r="G43">
-        <v>181.5204149776068</v>
+        <v>123.3729035210728</v>
       </c>
       <c r="H43">
-        <v>10.79902464215066</v>
+        <v>7.339709009932033</v>
       </c>
       <c r="I43">
-        <v>790.226272081042</v>
+        <v>537.0884020802763</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>408.0846043618029</v>
+        <v>277.3604419567624</v>
       </c>
       <c r="C44">
-        <v>11.42633792136212</v>
+        <v>7.766071304681033</v>
       </c>
       <c r="D44">
-        <v>103.4482997765012</v>
+        <v>70.31009216963157</v>
       </c>
       <c r="E44">
-        <v>205.340662329702</v>
+        <v>139.5626697177879</v>
       </c>
       <c r="F44">
-        <v>89.28151230403604</v>
+        <v>60.68143577712828</v>
       </c>
       <c r="G44">
-        <v>132.4608433620374</v>
+        <v>90.02887554240453</v>
       </c>
       <c r="H44">
-        <v>21.59804928430133</v>
+        <v>14.67941801986407</v>
       </c>
       <c r="I44">
-        <v>971.6403093397429</v>
+        <v>660.3890044882598</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>414.1645299333434</v>
+        <v>281.4927488989072</v>
       </c>
       <c r="C45">
-        <v>23.52481336751024</v>
+        <v>15.98897033316683</v>
       </c>
       <c r="D45">
-        <v>125.4585763246929</v>
+        <v>85.26968624827657</v>
       </c>
       <c r="E45">
-        <v>107.1342586068011</v>
+        <v>72.81530593971544</v>
       </c>
       <c r="F45">
-        <v>102.1233736628357</v>
+        <v>69.40958749849604</v>
       </c>
       <c r="G45">
-        <v>149.6316934274867</v>
+        <v>101.6992853349384</v>
       </c>
       <c r="H45">
-        <v>9.599133015245032</v>
+        <v>6.524185786606252</v>
       </c>
       <c r="I45">
-        <v>931.6363783379151</v>
+        <v>633.1997700401068</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>355.5540474236925</v>
+        <v>241.6573099766308</v>
       </c>
       <c r="C46">
-        <v>36.29542633844438</v>
+        <v>24.6686970854574</v>
       </c>
       <c r="D46">
-        <v>193.6904336240872</v>
+        <v>131.6444278920761</v>
       </c>
       <c r="E46">
-        <v>98.20640372290093</v>
+        <v>66.74736377807245</v>
       </c>
       <c r="F46">
-        <v>111.907648983826</v>
+        <v>76.05960785763337</v>
       </c>
       <c r="G46">
-        <v>159.4436077506006</v>
+        <v>108.3680909306721</v>
       </c>
       <c r="H46">
-        <v>9.599133015245032</v>
+        <v>6.524185786606252</v>
       </c>
       <c r="I46">
-        <v>964.6967008587966</v>
+        <v>655.6696833071485</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>264.5983608734456</v>
+        <v>179.8379981221439</v>
       </c>
       <c r="C47">
-        <v>27.55763851622629</v>
+        <v>18.72993667599543</v>
       </c>
       <c r="D47">
-        <v>112.2524103957778</v>
+        <v>76.29392980108956</v>
       </c>
       <c r="E47">
-        <v>42.40731069852541</v>
+        <v>28.82272526780403</v>
       </c>
       <c r="F47">
-        <v>99.06578762502629</v>
+        <v>67.33145613626561</v>
       </c>
       <c r="G47">
-        <v>107.9310575542527</v>
+        <v>73.35686155307035</v>
       </c>
       <c r="H47">
-        <v>5.999458134528146</v>
+        <v>4.077616116628908</v>
       </c>
       <c r="I47">
-        <v>659.8120237977822</v>
+        <v>448.4505236729977</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>277.7310001079733</v>
+        <v>188.7637811171768</v>
       </c>
       <c r="C48">
-        <v>27.55763851622629</v>
+        <v>18.72993667599543</v>
       </c>
       <c r="D48">
-        <v>99.04624446686282</v>
+        <v>67.31817335390254</v>
       </c>
       <c r="E48">
-        <v>42.40731069852541</v>
+        <v>28.82272526780403</v>
       </c>
       <c r="F48">
-        <v>92.95061554940739</v>
+        <v>63.17519341180478</v>
       </c>
       <c r="G48">
-        <v>95.66616465036034</v>
+        <v>65.02085455840327</v>
       </c>
       <c r="H48">
-        <v>11.99891626905629</v>
+        <v>8.155232233257816</v>
       </c>
       <c r="I48">
-        <v>647.3578902584118</v>
+        <v>439.9858966183447</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>280.1629703365894</v>
+        <v>190.4167038940348</v>
       </c>
       <c r="C49">
-        <v>21.50840079315222</v>
+        <v>14.61848716175253</v>
       </c>
       <c r="D49">
-        <v>105.6493274313203</v>
+        <v>71.80605157749608</v>
       </c>
       <c r="E49">
-        <v>40.17534697755039</v>
+        <v>27.30573972739328</v>
       </c>
       <c r="F49">
-        <v>73.38206490742687</v>
+        <v>49.87515269353009</v>
       </c>
       <c r="G49">
-        <v>88.30722890802494</v>
+        <v>60.01925036160301</v>
       </c>
       <c r="H49">
-        <v>8.399241388339403</v>
+        <v>5.708662563280472</v>
       </c>
       <c r="I49">
-        <v>617.5845807424035</v>
+        <v>419.7500479790903</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_재비산_TSP.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>246.7813705848905</v>
+        <v>363.0931551324028</v>
       </c>
       <c r="C2">
-        <v>21.9277307426288</v>
+        <v>32.26260118972834</v>
       </c>
       <c r="D2">
-        <v>95.74140210332808</v>
+        <v>140.865769908427</v>
       </c>
       <c r="E2">
-        <v>27.30573972739328</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F2">
-        <v>83.5408807616629</v>
+        <v>122.91495871994</v>
       </c>
       <c r="G2">
-        <v>56.68484756373618</v>
+        <v>83.40127174646796</v>
       </c>
       <c r="H2">
-        <v>10.60180190323516</v>
+        <v>15.59859114977318</v>
       </c>
       <c r="I2">
-        <v>542.5837733868748</v>
+        <v>798.3116948242897</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>254.8806921914943</v>
+        <v>375.0098092526223</v>
       </c>
       <c r="C3">
-        <v>24.21186936165263</v>
+        <v>35.62328881365838</v>
       </c>
       <c r="D3">
-        <v>97.23736151119255</v>
+        <v>143.0667975632463</v>
       </c>
       <c r="E3">
-        <v>27.30573972739328</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F3">
-        <v>80.6314968545403</v>
+        <v>118.6343382670068</v>
       </c>
       <c r="G3">
-        <v>45.01443777120227</v>
+        <v>66.23042168101868</v>
       </c>
       <c r="H3">
-        <v>9.78627867990938</v>
+        <v>14.39869952286755</v>
       </c>
       <c r="I3">
-        <v>539.0678760973847</v>
+        <v>793.1387020779704</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>258.1865377452102</v>
+        <v>379.8737497098547</v>
       </c>
       <c r="C4">
-        <v>22.38455846643357</v>
+        <v>32.93473871451435</v>
       </c>
       <c r="D4">
-        <v>98.73332091905709</v>
+        <v>145.2678252180654</v>
       </c>
       <c r="E4">
-        <v>25.78875418698255</v>
+        <v>37.94338325657537</v>
       </c>
       <c r="F4">
-        <v>75.22835531274123</v>
+        <v>110.6846145687022</v>
       </c>
       <c r="G4">
-        <v>45.01443777120227</v>
+        <v>66.23042168101868</v>
       </c>
       <c r="H4">
-        <v>8.970755456583596</v>
+        <v>13.19880789596192</v>
       </c>
       <c r="I4">
-        <v>534.3067198582104</v>
+        <v>786.1335410446927</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>279.1786570113061</v>
+        <v>410.7597716132808</v>
       </c>
       <c r="C5">
-        <v>18.72993667599543</v>
+        <v>27.55763851622629</v>
       </c>
       <c r="D5">
-        <v>103.2211991426506</v>
+        <v>151.870908182523</v>
       </c>
       <c r="E5">
-        <v>43.9925806719114</v>
+        <v>64.72694790827565</v>
       </c>
       <c r="F5">
-        <v>73.98147649540296</v>
+        <v>108.8500629460165</v>
       </c>
       <c r="G5">
-        <v>43.34723637226885</v>
+        <v>63.77744310024022</v>
       </c>
       <c r="H5">
-        <v>8.155232233257816</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I5">
-        <v>570.6063186027933</v>
+        <v>839.5416885356188</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>318.6835113782108</v>
+        <v>468.8838600772086</v>
       </c>
       <c r="C6">
-        <v>17.8162812283859</v>
+        <v>26.21336346665428</v>
       </c>
       <c r="D6">
-        <v>94.24544269546357</v>
+        <v>138.664742253608</v>
       </c>
       <c r="E6">
-        <v>97.08707458628722</v>
+        <v>142.8456781424014</v>
       </c>
       <c r="F6">
-        <v>62.34394086691261</v>
+        <v>91.72758113428362</v>
       </c>
       <c r="G6">
-        <v>21.67361818613443</v>
+        <v>31.88872155012011</v>
       </c>
       <c r="H6">
-        <v>7.339709009932033</v>
+        <v>10.79902464215066</v>
       </c>
       <c r="I6">
-        <v>619.1895779513264</v>
+        <v>911.0229712664266</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>340.1715074773642</v>
+        <v>500.4994730492198</v>
       </c>
       <c r="C7">
-        <v>6.852415857071499</v>
+        <v>10.08206287179011</v>
       </c>
       <c r="D7">
-        <v>64.32625453817356</v>
+        <v>94.64418915722445</v>
       </c>
       <c r="E7">
-        <v>101.6380312075194</v>
+        <v>149.5415693053265</v>
       </c>
       <c r="F7">
-        <v>40.31574842727015</v>
+        <v>59.31716913350341</v>
       </c>
       <c r="G7">
-        <v>21.67361818613443</v>
+        <v>31.88872155012011</v>
       </c>
       <c r="H7">
-        <v>8.155232233257816</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I7">
-        <v>583.132807926791</v>
+        <v>857.9721013362406</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>258.8477068559534</v>
+        <v>380.8465378013014</v>
       </c>
       <c r="C8">
-        <v>8.679726752290566</v>
+        <v>12.77061297093413</v>
       </c>
       <c r="D8">
-        <v>88.26160506400555</v>
+        <v>129.8606316343312</v>
       </c>
       <c r="E8">
-        <v>60.67942161642953</v>
+        <v>89.2785488390009</v>
       </c>
       <c r="F8">
-        <v>29.92509161611805</v>
+        <v>44.02923894445613</v>
       </c>
       <c r="G8">
-        <v>20.00641678720101</v>
+        <v>29.43574296934164</v>
       </c>
       <c r="H8">
-        <v>1.631046446651563</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I8">
-        <v>468.0310151386496</v>
+        <v>688.6210964131767</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>206.1194702741853</v>
+        <v>303.2666875084437</v>
       </c>
       <c r="C9">
-        <v>9.136554476095334</v>
+        <v>13.44275049572014</v>
       </c>
       <c r="D9">
-        <v>55.35049809098656</v>
+        <v>81.43802322830943</v>
       </c>
       <c r="E9">
-        <v>115.2909010712161</v>
+        <v>169.6292427941016</v>
       </c>
       <c r="F9">
-        <v>13.71566699072078</v>
+        <v>20.1800678495424</v>
       </c>
       <c r="G9">
-        <v>23.34081958506784</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="H9">
-        <v>2.446569669977345</v>
+        <v>3.599674880716888</v>
       </c>
       <c r="I9">
-        <v>425.4004801582493</v>
+        <v>625.8981468877327</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>170.7469228494252</v>
+        <v>251.2225246160563</v>
       </c>
       <c r="C10">
-        <v>4.568277238047667</v>
+        <v>6.721375247860069</v>
       </c>
       <c r="D10">
-        <v>46.37474164379952</v>
+        <v>68.23185729939436</v>
       </c>
       <c r="E10">
-        <v>57.64545053560806</v>
+        <v>84.81462139705081</v>
       </c>
       <c r="F10">
-        <v>12.88441444582861</v>
+        <v>18.95703343441861</v>
       </c>
       <c r="G10">
-        <v>28.34242378186809</v>
+        <v>41.70063587323398</v>
       </c>
       <c r="H10">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I10">
-        <v>321.3777537179029</v>
+        <v>472.8479394949198</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>121.3245318213728</v>
+        <v>178.5066147804312</v>
       </c>
       <c r="C11">
-        <v>9.136554476095334</v>
+        <v>13.44275049572014</v>
       </c>
       <c r="D11">
-        <v>23.93535052583202</v>
+        <v>35.21644247710676</v>
       </c>
       <c r="E11">
-        <v>27.30573972739328</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F11">
-        <v>14.13129326316686</v>
+        <v>20.79158505710429</v>
       </c>
       <c r="G11">
-        <v>20.00641678720101</v>
+        <v>29.43574296934164</v>
       </c>
       <c r="H11">
-        <v>3.262092893303126</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I11">
-        <v>219.1019794943644</v>
+        <v>322.3680492648768</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>74.54681723629312</v>
+        <v>109.6818573105919</v>
       </c>
       <c r="C12">
-        <v>9.136554476095334</v>
+        <v>13.44275049572014</v>
       </c>
       <c r="D12">
-        <v>13.46363467078051</v>
+        <v>19.80924889337256</v>
       </c>
       <c r="E12">
-        <v>13.65286986369664</v>
+        <v>20.0876734887752</v>
       </c>
       <c r="F12">
-        <v>7.896899176475598</v>
+        <v>11.61882694367592</v>
       </c>
       <c r="G12">
-        <v>15.00481259040075</v>
+        <v>22.07680722700623</v>
       </c>
       <c r="H12">
-        <v>1.631046446651563</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I12">
-        <v>135.3326344603935</v>
+        <v>199.1169476129532</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>52.89352885945409</v>
+        <v>77.82304731571934</v>
       </c>
       <c r="C13">
-        <v>13.704831714143</v>
+        <v>20.16412574358021</v>
       </c>
       <c r="D13">
-        <v>14.95959407864501</v>
+        <v>22.01027654819174</v>
       </c>
       <c r="E13">
-        <v>9.10191324246443</v>
+        <v>13.39178232585014</v>
       </c>
       <c r="F13">
-        <v>8.312525448921681</v>
+        <v>12.23034415123781</v>
       </c>
       <c r="G13">
-        <v>18.33921538826759</v>
+        <v>26.98276438856317</v>
       </c>
       <c r="I13">
-        <v>117.3116087318958</v>
+        <v>172.6023404731424</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>34.87667059170254</v>
+        <v>51.31457182380243</v>
       </c>
       <c r="C14">
-        <v>14.61848716175253</v>
+        <v>21.50840079315222</v>
       </c>
       <c r="D14">
-        <v>8.97575644718701</v>
+        <v>13.20616592891504</v>
       </c>
       <c r="E14">
-        <v>4.550956621232215</v>
+        <v>6.695891162925068</v>
       </c>
       <c r="F14">
-        <v>9.143777993813849</v>
+        <v>13.45337856636159</v>
       </c>
       <c r="G14">
-        <v>26.67522238293467</v>
+        <v>39.24765729245553</v>
       </c>
       <c r="H14">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I14">
-        <v>99.6563944219486</v>
+        <v>146.6259571945175</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>26.61205670741285</v>
+        <v>39.15472068072126</v>
       </c>
       <c r="C15">
-        <v>10.9638653713144</v>
+        <v>16.13130059486417</v>
       </c>
       <c r="D15">
-        <v>16.45555348650951</v>
+        <v>24.2113042030109</v>
       </c>
       <c r="E15">
-        <v>6.067942161642951</v>
+        <v>8.927854883900087</v>
       </c>
       <c r="F15">
-        <v>7.065646631583431</v>
+        <v>10.39579252855214</v>
       </c>
       <c r="G15">
-        <v>23.34081958506784</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="H15">
-        <v>1.631046446651563</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I15">
-        <v>92.13693039018256</v>
+        <v>135.5624562757584</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>24.29796481981173</v>
+        <v>35.74996236065856</v>
       </c>
       <c r="C16">
-        <v>4.1114495142429</v>
+        <v>6.049237723074063</v>
       </c>
       <c r="D16">
-        <v>19.44747230223851</v>
+        <v>28.61335951264925</v>
       </c>
       <c r="E16">
-        <v>4.550956621232215</v>
+        <v>6.695891162925068</v>
       </c>
       <c r="F16">
-        <v>6.650020359137345</v>
+        <v>9.78427532099025</v>
       </c>
       <c r="G16">
-        <v>20.00641678720101</v>
+        <v>29.43574296934164</v>
       </c>
       <c r="H16">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I16">
-        <v>79.87980362718949</v>
+        <v>117.5283606765444</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>48.92651419499505</v>
+        <v>71.98631876704033</v>
       </c>
       <c r="C17">
-        <v>5.938760409461968</v>
+        <v>8.737787822218092</v>
       </c>
       <c r="D17">
-        <v>29.91918815729003</v>
+        <v>44.02055309638349</v>
       </c>
       <c r="E17">
-        <v>4.550956621232215</v>
+        <v>6.695891162925068</v>
       </c>
       <c r="F17">
-        <v>15.37817208050511</v>
+        <v>22.62613667978996</v>
       </c>
       <c r="G17">
-        <v>30.0096251808015</v>
+        <v>44.15361445401247</v>
       </c>
       <c r="H17">
-        <v>2.446569669977345</v>
+        <v>3.599674880716888</v>
       </c>
       <c r="I17">
-        <v>137.1697863142632</v>
+        <v>201.8199768630863</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>107.7705650511378</v>
+        <v>158.5644589057781</v>
       </c>
       <c r="C18">
-        <v>3.654621790438133</v>
+        <v>5.377100198288056</v>
       </c>
       <c r="D18">
-        <v>47.87070105166404</v>
+        <v>70.43288495421352</v>
       </c>
       <c r="E18">
-        <v>72.81530593971544</v>
+        <v>107.1342586068011</v>
       </c>
       <c r="F18">
-        <v>35.32823315791715</v>
+        <v>51.97896264276071</v>
       </c>
       <c r="G18">
-        <v>55.01764616480276</v>
+        <v>80.94829316568951</v>
       </c>
       <c r="H18">
-        <v>2.446569669977345</v>
+        <v>3.599674880716888</v>
       </c>
       <c r="I18">
-        <v>324.9036428256526</v>
+        <v>478.0356333542478</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>189.7555347832916</v>
+        <v>279.190182245143</v>
       </c>
       <c r="C19">
-        <v>6.395588133266734</v>
+        <v>9.409925347004098</v>
       </c>
       <c r="D19">
-        <v>88.26160506400555</v>
+        <v>129.8606316343312</v>
       </c>
       <c r="E19">
-        <v>150.1815685006631</v>
+        <v>220.9644083765272</v>
       </c>
       <c r="F19">
-        <v>59.85018323223611</v>
+        <v>88.05847788891226</v>
       </c>
       <c r="G19">
-        <v>98.36488253707164</v>
+        <v>144.7257362659297</v>
       </c>
       <c r="H19">
-        <v>8.155232233257816</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I19">
-        <v>600.9645944837926</v>
+        <v>884.2082780269039</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>257.0294918014096</v>
+        <v>378.1713705498235</v>
       </c>
       <c r="C20">
-        <v>6.852415857071499</v>
+        <v>10.08206287179011</v>
       </c>
       <c r="D20">
-        <v>77.78988920895405</v>
+        <v>114.453438050597</v>
       </c>
       <c r="E20">
-        <v>130.4607564753234</v>
+        <v>191.9488800038519</v>
       </c>
       <c r="F20">
-        <v>58.18767814245177</v>
+        <v>85.61240905866468</v>
       </c>
       <c r="G20">
-        <v>85.02727134560426</v>
+        <v>125.1019076197019</v>
       </c>
       <c r="H20">
-        <v>8.155232233257816</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I20">
-        <v>623.5027350640725</v>
+        <v>917.3689844234854</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>203.8053783865839</v>
+        <v>299.8619291883809</v>
       </c>
       <c r="C21">
-        <v>7.309243580876266</v>
+        <v>10.75420039657611</v>
       </c>
       <c r="D21">
-        <v>38.89494460447703</v>
+        <v>57.22671902529851</v>
       </c>
       <c r="E21">
-        <v>54.61147945478657</v>
+        <v>80.35069395510078</v>
       </c>
       <c r="F21">
-        <v>45.71888996906925</v>
+        <v>67.26689283180799</v>
       </c>
       <c r="G21">
-        <v>61.68645176053642</v>
+        <v>90.76020748880339</v>
       </c>
       <c r="H21">
-        <v>3.262092893303126</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I21">
-        <v>415.2884806496326</v>
+        <v>611.0202093935903</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>241.3267254212593</v>
+        <v>355.0676533779693</v>
       </c>
       <c r="C22">
-        <v>22.84138619023833</v>
+        <v>33.60687623930036</v>
       </c>
       <c r="D22">
-        <v>121.1727120370246</v>
+        <v>178.283240040353</v>
       </c>
       <c r="E22">
-        <v>56.12846499519731</v>
+        <v>82.58265767607583</v>
       </c>
       <c r="F22">
-        <v>86.45026466878549</v>
+        <v>127.1955791728733</v>
       </c>
       <c r="G22">
-        <v>111.7024937285389</v>
+        <v>164.3495649121575</v>
       </c>
       <c r="H22">
-        <v>3.262092893303126</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I22">
-        <v>642.8841399343471</v>
+        <v>945.8851379263519</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>216.8634683237619</v>
+        <v>319.0744939944492</v>
       </c>
       <c r="C23">
-        <v>23.75504163784787</v>
+        <v>34.95115128887237</v>
       </c>
       <c r="D23">
-        <v>98.73332091905709</v>
+        <v>145.2678252180654</v>
       </c>
       <c r="E23">
-        <v>34.89066742944699</v>
+        <v>51.33516558242551</v>
       </c>
       <c r="F23">
-        <v>93.51591130036891</v>
+        <v>137.5913717014254</v>
       </c>
       <c r="G23">
-        <v>85.02727134560426</v>
+        <v>125.1019076197019</v>
       </c>
       <c r="H23">
-        <v>4.077616116628908</v>
+        <v>5.999458134528146</v>
       </c>
       <c r="I23">
-        <v>556.8632970727159</v>
+        <v>819.3213735394679</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>227.6074663733385</v>
+        <v>334.8823004804546</v>
       </c>
       <c r="C24">
-        <v>23.75504163784787</v>
+        <v>34.95115128887237</v>
       </c>
       <c r="D24">
-        <v>88.26160506400555</v>
+        <v>129.8606316343312</v>
       </c>
       <c r="E24">
-        <v>33.37368188903623</v>
+        <v>49.10320186145047</v>
       </c>
       <c r="F24">
-        <v>87.28151721367766</v>
+        <v>128.418613587997</v>
       </c>
       <c r="G24">
-        <v>75.02406295200377</v>
+        <v>110.3840361350311</v>
       </c>
       <c r="H24">
-        <v>8.155232233257816</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I24">
-        <v>543.4586073631674</v>
+        <v>799.5988512571931</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>229.5909737055679</v>
+        <v>337.8006647547941</v>
       </c>
       <c r="C25">
-        <v>18.27310895219067</v>
+        <v>26.88550099144028</v>
       </c>
       <c r="D25">
-        <v>92.74948328759905</v>
+        <v>136.4637145987887</v>
       </c>
       <c r="E25">
-        <v>31.8566963486255</v>
+        <v>46.87123814047546</v>
       </c>
       <c r="F25">
-        <v>68.99396122604996</v>
+        <v>101.5118564552738</v>
       </c>
       <c r="G25">
-        <v>70.02245875520353</v>
+        <v>103.0251003926957</v>
       </c>
       <c r="H25">
-        <v>5.708662563280472</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I25">
-        <v>517.1953448385171</v>
+        <v>760.9573167218075</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>236.2026648129997</v>
+        <v>347.5285456692592</v>
       </c>
       <c r="C26">
-        <v>19.64359212360497</v>
+        <v>28.9019135657983</v>
       </c>
       <c r="D26">
-        <v>82.27776743254756</v>
+        <v>121.0565210150545</v>
       </c>
       <c r="E26">
-        <v>18.20382648492886</v>
+        <v>26.78356465170027</v>
       </c>
       <c r="F26">
-        <v>88.11276975856981</v>
+        <v>129.6416480031208</v>
       </c>
       <c r="G26">
-        <v>93.36327834027138</v>
+        <v>137.3668005235943</v>
       </c>
       <c r="H26">
-        <v>6.524185786606252</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I26">
-        <v>544.3280847395285</v>
+        <v>800.8781264437724</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>247.938416528691</v>
+        <v>364.7955342924342</v>
       </c>
       <c r="C27">
-        <v>15.53214260936207</v>
+        <v>22.85267584272424</v>
       </c>
       <c r="D27">
-        <v>115.1888744055666</v>
+        <v>169.4791294210764</v>
       </c>
       <c r="E27">
-        <v>36.40765296985772</v>
+        <v>53.56712930340054</v>
       </c>
       <c r="F27">
-        <v>73.98147649540296</v>
+        <v>108.8500629460165</v>
       </c>
       <c r="G27">
-        <v>36.67843077653517</v>
+        <v>53.96552877712634</v>
       </c>
       <c r="H27">
-        <v>5.708662563280472</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I27">
-        <v>531.4356563486959</v>
+        <v>781.9093019711178</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>240.0043871997728</v>
+        <v>353.1220771950761</v>
       </c>
       <c r="C28">
-        <v>23.75504163784787</v>
+        <v>34.95115128887237</v>
       </c>
       <c r="D28">
-        <v>113.6929149977021</v>
+        <v>167.2781017662572</v>
       </c>
       <c r="E28">
-        <v>33.37368188903623</v>
+        <v>49.10320186145047</v>
       </c>
       <c r="F28">
-        <v>69.82521377094213</v>
+        <v>102.7348908703976</v>
       </c>
       <c r="G28">
-        <v>75.02406295200377</v>
+        <v>110.3840361350311</v>
       </c>
       <c r="H28">
-        <v>13.0483715732125</v>
+        <v>19.19826603049006</v>
       </c>
       <c r="I28">
-        <v>568.7236740205175</v>
+        <v>836.7717251475751</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>263.9717674642131</v>
+        <v>388.3856455100116</v>
       </c>
       <c r="C29">
-        <v>20.5572475712145</v>
+        <v>30.24618861537032</v>
       </c>
       <c r="D29">
-        <v>110.7009961819731</v>
+        <v>162.8760464566189</v>
       </c>
       <c r="E29">
-        <v>43.9925806719114</v>
+        <v>64.72694790827565</v>
       </c>
       <c r="F29">
-        <v>69.40958749849604</v>
+        <v>102.1233736628357</v>
       </c>
       <c r="G29">
-        <v>45.01443777120227</v>
+        <v>66.23042168101868</v>
       </c>
       <c r="H29">
-        <v>20.38808058314454</v>
+        <v>29.99729067264073</v>
       </c>
       <c r="I29">
-        <v>574.034697742155</v>
+        <v>844.5859145067716</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>330.7498476492739</v>
+        <v>486.6372427461074</v>
       </c>
       <c r="C30">
-        <v>10.05020992370486</v>
+        <v>14.78702554529216</v>
       </c>
       <c r="D30">
-        <v>70.31009216963157</v>
+        <v>103.4482997765012</v>
       </c>
       <c r="E30">
-        <v>72.81530593971544</v>
+        <v>107.1342586068011</v>
       </c>
       <c r="F30">
-        <v>60.2658095046822</v>
+        <v>88.66999509647415</v>
       </c>
       <c r="G30">
-        <v>35.01122937760177</v>
+        <v>51.51255019634785</v>
       </c>
       <c r="H30">
-        <v>10.60180190323516</v>
+        <v>15.59859114977318</v>
       </c>
       <c r="I30">
-        <v>589.804296467845</v>
+        <v>867.787963117297</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>344.1385221418231</v>
+        <v>506.3362015978988</v>
       </c>
       <c r="C31">
-        <v>13.24800399033823</v>
+        <v>19.49198821879421</v>
       </c>
       <c r="D31">
-        <v>88.26160506400555</v>
+        <v>129.8606316343312</v>
       </c>
       <c r="E31">
-        <v>106.1889878287516</v>
+        <v>156.2374604682515</v>
       </c>
       <c r="F31">
-        <v>46.13451624151533</v>
+        <v>67.87841003936987</v>
       </c>
       <c r="G31">
-        <v>31.67682657973493</v>
+        <v>46.60659303479093</v>
       </c>
       <c r="H31">
-        <v>3.262092893303126</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I31">
-        <v>632.910554739472</v>
+        <v>931.2108515010592</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>272.2363813485028</v>
+        <v>400.5454966530926</v>
       </c>
       <c r="C32">
-        <v>9.593382199900098</v>
+        <v>14.11488802050615</v>
       </c>
       <c r="D32">
-        <v>74.79797039322509</v>
+        <v>110.0513827409587</v>
       </c>
       <c r="E32">
-        <v>71.2983203993047</v>
+        <v>104.9022948858261</v>
       </c>
       <c r="F32">
-        <v>32.41884925079456</v>
+        <v>47.69834218982748</v>
       </c>
       <c r="G32">
-        <v>25.00802098400126</v>
+        <v>36.79467871167707</v>
       </c>
       <c r="H32">
-        <v>7.339709009932033</v>
+        <v>10.79902464215066</v>
       </c>
       <c r="I32">
-        <v>492.6926335856605</v>
+        <v>724.9061078440387</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>227.9380509287099</v>
+        <v>335.3686945261776</v>
       </c>
       <c r="C33">
-        <v>13.704831714143</v>
+        <v>20.16412574358021</v>
       </c>
       <c r="D33">
-        <v>58.34241690671556</v>
+        <v>85.84007853794776</v>
       </c>
       <c r="E33">
-        <v>97.08707458628722</v>
+        <v>142.8456781424014</v>
       </c>
       <c r="F33">
-        <v>20.7813136223042</v>
+        <v>30.57586037809454</v>
       </c>
       <c r="G33">
-        <v>26.67522238293467</v>
+        <v>39.24765729245553</v>
       </c>
       <c r="H33">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I33">
-        <v>445.3444333644204</v>
+        <v>655.2419862475625</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>187.2761506180046</v>
+        <v>275.5422269022185</v>
       </c>
       <c r="C34">
-        <v>9.136554476095334</v>
+        <v>13.44275049572014</v>
       </c>
       <c r="D34">
-        <v>38.89494460447703</v>
+        <v>57.22671902529851</v>
       </c>
       <c r="E34">
-        <v>47.02655175273286</v>
+        <v>69.1908753502257</v>
       </c>
       <c r="F34">
-        <v>13.30004071827469</v>
+        <v>19.5685506419805</v>
       </c>
       <c r="G34">
-        <v>13.33761119146734</v>
+        <v>19.62382864622776</v>
       </c>
       <c r="H34">
-        <v>3.262092893303126</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I34">
-        <v>312.233946254355</v>
+        <v>459.3945175692937</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>132.3991144263211</v>
+        <v>194.8008153121597</v>
       </c>
       <c r="C35">
-        <v>8.679726752290566</v>
+        <v>12.77061297093413</v>
       </c>
       <c r="D35">
-        <v>37.39898519661254</v>
+        <v>55.02569137047934</v>
       </c>
       <c r="E35">
-        <v>25.78875418698255</v>
+        <v>37.94338325657537</v>
       </c>
       <c r="F35">
-        <v>9.975030538706019</v>
+        <v>14.67641298148538</v>
       </c>
       <c r="G35">
-        <v>21.67361818613443</v>
+        <v>31.88872155012011</v>
       </c>
       <c r="H35">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I35">
-        <v>236.730752510373</v>
+        <v>348.3055290686597</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>83.3073079536402</v>
+        <v>122.5712995222578</v>
       </c>
       <c r="C36">
-        <v>15.98897033316683</v>
+        <v>23.52481336751024</v>
       </c>
       <c r="D36">
-        <v>14.95959407864501</v>
+        <v>22.01027654819174</v>
       </c>
       <c r="E36">
-        <v>13.65286986369664</v>
+        <v>20.0876734887752</v>
       </c>
       <c r="F36">
-        <v>8.312525448921681</v>
+        <v>12.23034415123781</v>
       </c>
       <c r="G36">
-        <v>15.00481259040075</v>
+        <v>22.07680722700623</v>
       </c>
       <c r="H36">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I36">
-        <v>152.0416034917969</v>
+        <v>223.7011059318847</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>63.30694235365911</v>
+        <v>93.14445975600155</v>
       </c>
       <c r="C37">
-        <v>19.1867643998002</v>
+        <v>28.2297760410123</v>
       </c>
       <c r="D37">
-        <v>14.95959407864501</v>
+        <v>22.01027654819174</v>
       </c>
       <c r="E37">
-        <v>6.067942161642951</v>
+        <v>8.927854883900087</v>
       </c>
       <c r="F37">
-        <v>7.065646631583431</v>
+        <v>10.39579252855214</v>
       </c>
       <c r="G37">
-        <v>16.67201398933418</v>
+        <v>24.52978580778471</v>
       </c>
       <c r="H37">
-        <v>3.262092893303126</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I37">
-        <v>130.520996507968</v>
+        <v>192.0375120730651</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>35.53783970244571</v>
+        <v>52.28735991524889</v>
       </c>
       <c r="C38">
-        <v>13.24800399033823</v>
+        <v>19.49198821879421</v>
       </c>
       <c r="D38">
-        <v>11.96767526291601</v>
+        <v>17.60822123855338</v>
       </c>
       <c r="E38">
-        <v>3.033971080821475</v>
+        <v>4.463927441950044</v>
       </c>
       <c r="F38">
-        <v>8.312525448921681</v>
+        <v>12.23034415123781</v>
       </c>
       <c r="G38">
-        <v>16.67201398933418</v>
+        <v>24.52978580778471</v>
       </c>
       <c r="H38">
-        <v>1.631046446651563</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I38">
-        <v>90.40307592142885</v>
+        <v>133.0114100273803</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>23.80208798675434</v>
+        <v>35.02037129207367</v>
       </c>
       <c r="C39">
-        <v>9.593382199900098</v>
+        <v>14.11488802050615</v>
       </c>
       <c r="D39">
-        <v>17.95151289437402</v>
+        <v>26.41233185783008</v>
       </c>
       <c r="E39">
-        <v>1.516985540410738</v>
+        <v>2.231963720975022</v>
       </c>
       <c r="F39">
-        <v>7.896899176475598</v>
+        <v>11.61882694367592</v>
       </c>
       <c r="G39">
-        <v>16.67201398933418</v>
+        <v>24.52978580778471</v>
       </c>
       <c r="H39">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I39">
-        <v>78.24840501057476</v>
+        <v>115.1280592697512</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>23.96738026444012</v>
+        <v>35.26356831493529</v>
       </c>
       <c r="C40">
-        <v>5.025104961852432</v>
+        <v>7.393512772646078</v>
       </c>
       <c r="D40">
-        <v>16.45555348650951</v>
+        <v>24.2113042030109</v>
       </c>
       <c r="E40">
-        <v>4.550956621232215</v>
+        <v>6.695891162925068</v>
       </c>
       <c r="F40">
-        <v>8.728151721367766</v>
+        <v>12.8418613587997</v>
       </c>
       <c r="G40">
-        <v>21.67361818613443</v>
+        <v>31.88872155012011</v>
       </c>
       <c r="H40">
-        <v>1.631046446651563</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I40">
-        <v>82.03181168818804</v>
+        <v>120.6946426162484</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>44.79420725285017</v>
+        <v>65.90639319549973</v>
       </c>
       <c r="C41">
-        <v>5.025104961852432</v>
+        <v>7.393512772646078</v>
       </c>
       <c r="D41">
-        <v>20.94343171010302</v>
+        <v>30.81438716746842</v>
       </c>
       <c r="E41">
-        <v>7.584927702053691</v>
+        <v>11.15981860487511</v>
       </c>
       <c r="F41">
-        <v>21.19693989475029</v>
+        <v>31.18737758565642</v>
       </c>
       <c r="G41">
-        <v>33.34402797866835</v>
+        <v>49.05957161556941</v>
       </c>
       <c r="H41">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I41">
-        <v>133.7041627236037</v>
+        <v>196.7209525686208</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>116.365763490799</v>
+        <v>171.2107040945826</v>
       </c>
       <c r="C42">
-        <v>5.025104961852432</v>
+        <v>7.393512772646078</v>
       </c>
       <c r="D42">
-        <v>38.89494460447703</v>
+        <v>57.22671902529851</v>
       </c>
       <c r="E42">
-        <v>63.713392697251</v>
+        <v>93.74247628095091</v>
       </c>
       <c r="F42">
-        <v>41.97825351705449</v>
+        <v>61.76323796375097</v>
       </c>
       <c r="G42">
-        <v>61.68645176053642</v>
+        <v>90.76020748880339</v>
       </c>
       <c r="H42">
-        <v>6.524185786606252</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I42">
-        <v>334.1880968185767</v>
+        <v>491.6959906412775</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>173.2263070147122</v>
+        <v>254.8704799589807</v>
       </c>
       <c r="C43">
-        <v>2.284138619023834</v>
+        <v>3.360687623930035</v>
       </c>
       <c r="D43">
-        <v>55.35049809098656</v>
+        <v>81.43802322830943</v>
       </c>
       <c r="E43">
-        <v>124.3928143136805</v>
+        <v>183.0210251199518</v>
       </c>
       <c r="F43">
-        <v>51.12203151086834</v>
+        <v>75.21661653011255</v>
       </c>
       <c r="G43">
-        <v>123.3729035210728</v>
+        <v>181.5204149776068</v>
       </c>
       <c r="H43">
-        <v>7.339709009932033</v>
+        <v>10.79902464215066</v>
       </c>
       <c r="I43">
-        <v>537.0884020802763</v>
+        <v>790.226272081042</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>277.3604419567624</v>
+        <v>408.0846043618029</v>
       </c>
       <c r="C44">
-        <v>7.766071304681033</v>
+        <v>11.42633792136212</v>
       </c>
       <c r="D44">
-        <v>70.31009216963157</v>
+        <v>103.4482997765012</v>
       </c>
       <c r="E44">
-        <v>139.5626697177879</v>
+        <v>205.340662329702</v>
       </c>
       <c r="F44">
-        <v>60.68143577712828</v>
+        <v>89.28151230403604</v>
       </c>
       <c r="G44">
-        <v>90.02887554240453</v>
+        <v>132.4608433620374</v>
       </c>
       <c r="H44">
-        <v>14.67941801986407</v>
+        <v>21.59804928430133</v>
       </c>
       <c r="I44">
-        <v>660.3890044882598</v>
+        <v>971.6403093397429</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>281.4927488989072</v>
+        <v>414.1645299333434</v>
       </c>
       <c r="C45">
-        <v>15.98897033316683</v>
+        <v>23.52481336751024</v>
       </c>
       <c r="D45">
-        <v>85.26968624827657</v>
+        <v>125.4585763246929</v>
       </c>
       <c r="E45">
-        <v>72.81530593971544</v>
+        <v>107.1342586068011</v>
       </c>
       <c r="F45">
-        <v>69.40958749849604</v>
+        <v>102.1233736628357</v>
       </c>
       <c r="G45">
-        <v>101.6992853349384</v>
+        <v>149.6316934274867</v>
       </c>
       <c r="H45">
-        <v>6.524185786606252</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I45">
-        <v>633.1997700401068</v>
+        <v>931.6363783379151</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>241.6573099766308</v>
+        <v>355.5540474236925</v>
       </c>
       <c r="C46">
-        <v>24.6686970854574</v>
+        <v>36.29542633844438</v>
       </c>
       <c r="D46">
-        <v>131.6444278920761</v>
+        <v>193.6904336240872</v>
       </c>
       <c r="E46">
-        <v>66.74736377807245</v>
+        <v>98.20640372290093</v>
       </c>
       <c r="F46">
-        <v>76.05960785763337</v>
+        <v>111.907648983826</v>
       </c>
       <c r="G46">
-        <v>108.3680909306721</v>
+        <v>159.4436077506006</v>
       </c>
       <c r="H46">
-        <v>6.524185786606252</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I46">
-        <v>655.6696833071485</v>
+        <v>964.6967008587966</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>179.8379981221439</v>
+        <v>264.5983608734456</v>
       </c>
       <c r="C47">
-        <v>18.72993667599543</v>
+        <v>27.55763851622629</v>
       </c>
       <c r="D47">
-        <v>76.29392980108956</v>
+        <v>112.2524103957778</v>
       </c>
       <c r="E47">
-        <v>28.82272526780403</v>
+        <v>42.40731069852541</v>
       </c>
       <c r="F47">
-        <v>67.33145613626561</v>
+        <v>99.06578762502629</v>
       </c>
       <c r="G47">
-        <v>73.35686155307035</v>
+        <v>107.9310575542527</v>
       </c>
       <c r="H47">
-        <v>4.077616116628908</v>
+        <v>5.999458134528146</v>
       </c>
       <c r="I47">
-        <v>448.4505236729977</v>
+        <v>659.8120237977822</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>188.7637811171768</v>
+        <v>277.7310001079733</v>
       </c>
       <c r="C48">
-        <v>18.72993667599543</v>
+        <v>27.55763851622629</v>
       </c>
       <c r="D48">
-        <v>67.31817335390254</v>
+        <v>99.04624446686282</v>
       </c>
       <c r="E48">
-        <v>28.82272526780403</v>
+        <v>42.40731069852541</v>
       </c>
       <c r="F48">
-        <v>63.17519341180478</v>
+        <v>92.95061554940739</v>
       </c>
       <c r="G48">
-        <v>65.02085455840327</v>
+        <v>95.66616465036034</v>
       </c>
       <c r="H48">
-        <v>8.155232233257816</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I48">
-        <v>439.9858966183447</v>
+        <v>647.3578902584118</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>190.4167038940348</v>
+        <v>280.1629703365894</v>
       </c>
       <c r="C49">
-        <v>14.61848716175253</v>
+        <v>21.50840079315222</v>
       </c>
       <c r="D49">
-        <v>71.80605157749608</v>
+        <v>105.6493274313203</v>
       </c>
       <c r="E49">
-        <v>27.30573972739328</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F49">
-        <v>49.87515269353009</v>
+        <v>73.38206490742687</v>
       </c>
       <c r="G49">
-        <v>60.01925036160301</v>
+        <v>88.30722890802494</v>
       </c>
       <c r="H49">
-        <v>5.708662563280472</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I49">
-        <v>419.7500479790903</v>
+        <v>617.5845807424035</v>
       </c>
     </row>
   </sheetData>
